--- a/case3_Borate/Excel_Files/purolite pcr642Ca Adsorption data.xlsx
+++ b/case3_Borate/Excel_Files/purolite pcr642Ca Adsorption data.xlsx
@@ -5,20 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1979230255d33e2/Desktop/MEng/MEng_Code/case3_Borate/Excel_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="8_{DC57486E-ABB9-45E4-BBD7-EBA1552D5838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{344EE733-798C-4CAD-BD03-6175CF93EF7A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3424ABC5-F4D1-46CB-9F05-91AF49DE730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conc. in Calib Units" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -56,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="187">
   <si>
     <t>TT1210 Sample 91</t>
   </si>
@@ -591,50 +588,54 @@
     <t>mL_resin</t>
   </si>
   <si>
-    <t>Co (g_solute/L_liquid)</t>
-  </si>
-  <si>
-    <t>Ce (g_solute/L_liquid)</t>
-  </si>
-  <si>
-    <t>Change in C (g_solute/L_liquid)</t>
-  </si>
-  <si>
-    <t>Change in C (g_solute/mL_liquid)</t>
-  </si>
-  <si>
-    <t>Change in Mass (g_solute)</t>
-  </si>
-  <si>
-    <t>qe (g_solute/mL_resin)</t>
-  </si>
-  <si>
-    <t>Ce (ppm)</t>
-  </si>
-  <si>
     <t>ml</t>
   </si>
   <si>
     <t>g</t>
   </si>
   <si>
-    <t>ubk</t>
-  </si>
-  <si>
-    <t>pcr</t>
+    <t>Co (mg_solute/L_liquid)</t>
+  </si>
+  <si>
+    <t>Ce (mg_solute/L_liquid)</t>
+  </si>
+  <si>
+    <t>Ce (g_solute/mL_liquid)</t>
+  </si>
+  <si>
+    <t>Co (g_solute/mL_liquid)</t>
+  </si>
+  <si>
+    <t>Ce (ppm) (mg_solute/L_liquid)</t>
+  </si>
+  <si>
+    <t>dC (g_solute/mL_liquid)</t>
+  </si>
+  <si>
+    <t>dm (g_solute)</t>
+  </si>
+  <si>
+    <t>Qe (g_solute/g_resin)</t>
+  </si>
+  <si>
+    <t>Qe (g_solute/mL_resin)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -693,12 +694,6 @@
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -775,7 +770,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1058,12 +1053,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1135,6 +1139,26 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1162,24 +1186,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1295,553 +1301,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Borate-pcr-run1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$11:$L$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6550325819589866E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2623895717562962E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0832572731030442E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.7242631458875035E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.640285303050894E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.6381199074094431E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14462023325384799</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$P$11:$P$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8751041993890703E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.2373775491333221E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.7130212430070835E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.638199503716231E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0135739084081328E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3140829043054603E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.972210265369606E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BCBF-472C-A579-EB89C1D34F42}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$25:$L$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8271248581695959E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6153520678857444E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.1433610810615938E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0098560585107902E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.1264887481677683E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.10465471631037801</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12366157967019932</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$P$25:$P$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7950812909511375E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.6082499884331286E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.6850729723063568E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5784194332792482E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9909654482101985E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.2291110491567418E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0696680045335734E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BCBF-472C-A579-EB89C1D34F42}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="443503760"/>
-        <c:axId val="443507600"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="443503760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" b="1"/>
-                  <a:t>Ce</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="443507600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="443507600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>qe</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="443503760"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="0"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -1898,7 +1357,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1936,35 +1395,63 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$L$37:$L$44</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7410787200642912E-2</c:v>
+                  <c:v>1.7430675601504233E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9388708198210205E-2</c:v>
+                  <c:v>2.9422279018570391E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1133091770823194E-2</c:v>
+                  <c:v>4.1180078240095143E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3670596021991465E-2</c:v>
+                  <c:v>5.3731904124597636E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8833870256093305E-2</c:v>
+                  <c:v>6.8912499417929179E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5517957692236227E-2</c:v>
+                  <c:v>9.562706817702621E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13414090646202365</c:v>
+                  <c:v>1.3429413607128098E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1973,31 +1460,31 @@
             <c:numRef>
               <c:f>Sheet1!$M$37:$M$44</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8350927451701039E-4</c:v>
+                  <c:v>3.8394735845300533E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9228137687832254E-4</c:v>
+                  <c:v>7.9318640256364776E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6990471076567196E-4</c:v>
+                  <c:v>9.710126361835576E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6083094684977396E-3</c:v>
+                  <c:v>1.610146645820621E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0022696783091659E-3</c:v>
+                  <c:v>2.0045568777066294E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2715969767311013E-3</c:v>
+                  <c:v>3.2753341329768279E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0209391349515892E-3</c:v>
+                  <c:v>4.0255322672685442E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2043,30 +1530,6 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1649269965999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5623307375999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4316876682499992E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0399082890499995E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.5215158437499994E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12964190960999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16601215620379922</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2076,30 +1539,6 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5793258240554999E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.509793537547999E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3969527042756234E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5058361657759628E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8950306126484374E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0627122035342498E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.8102743103676185E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2314,7 +1753,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2439,529 +1878,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Mass</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> of Solute Transfered</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>UBK-530</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$S$24:$S$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.2492702656943012E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.004167935585E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.2132151234375E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9371677566425005E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0809680997624994E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.46222738936E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1735494505099998E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BAE6-4BFC-A17A-2061A5CDC6F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>PCR-642.Ca</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$T$24:$T$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.2970771403069646E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0553538634616456E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.4589344461585992E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.1880950596701284E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1287248734376519E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.555746377026847E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2371266919903564E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BAE6-4BFC-A17A-2061A5CDC6F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="474695328"/>
-        <c:axId val="474686688"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="474695328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="474686688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="474686688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>grams</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="474695328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3517,1025 +2434,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4682,52 +2580,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>131618</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581891</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>141087</xdr:rowOff>
+      <xdr:rowOff>152398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>399010</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>152517</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC701B51-BEF8-895F-B03A-45FC93B0A9C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>124691</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>166253</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>692728</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>110836</xdr:rowOff>
+      <xdr:colOff>540328</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4746,126 +2608,13 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>358042</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161193</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>58127</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>92808</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC76CBC0-A48A-D4E7-3EB4-1039E8B74B2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Conc. in Calib Units"/>
-      <sheetName val="ubk 530 adsorption"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="28">
-          <cell r="L28">
-            <v>2.1649269965999998E-2</v>
-          </cell>
-          <cell r="M28">
-            <v>3.5793258240554999E-4</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="L29">
-            <v>3.5623307375999995E-2</v>
-          </cell>
-          <cell r="M29">
-            <v>7.509793537547999E-4</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="L30">
-            <v>4.4316876682499992E-2</v>
-          </cell>
-          <cell r="M30">
-            <v>9.3969527042756234E-4</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="L31">
-            <v>7.0399082890499995E-2</v>
-          </cell>
-          <cell r="M31">
-            <v>1.5058361657759628E-3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="L32">
-            <v>8.5215158437499994E-2</v>
-          </cell>
-          <cell r="M32">
-            <v>1.8950306126484374E-3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="L33">
-            <v>0.12964190960999999</v>
-          </cell>
-          <cell r="M33">
-            <v>3.0627122035342498E-3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="L34">
-            <v>0.16601215620379922</v>
-          </cell>
-          <cell r="M34">
-            <v>3.8102743103676185E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5196,21 +2945,21 @@
       <c r="A1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -8149,8 +5898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6828CF-0838-4573-8335-33E9026E31D7}">
   <dimension ref="B2:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38:M44"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="188" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8158,30 +5907,30 @@
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.109375" customWidth="1"/>
     <col min="6" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="35" t="s">
+    <row r="2" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="3" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="55"/>
+    </row>
+    <row r="3" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="26" t="s">
         <v>155</v>
       </c>
@@ -8189,10 +5938,10 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F4" s="26" t="s">
         <v>156</v>
       </c>
@@ -8200,50 +5949,50 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="33" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="2:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33" t="s">
+      <c r="C6" s="56"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="34"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="41">
+      <c r="F6" s="56"/>
+      <c r="G6" s="54"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32">
         <v>1</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="32">
         <v>9.9885899999999994E-4</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="33" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>160</v>
       </c>
@@ -8256,24 +6005,24 @@
       <c r="E7" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41" t="s">
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="32">
         <v>1.24</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="O7" s="32"/>
+    </row>
+    <row r="8" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="24">
         <v>1000</v>
       </c>
@@ -8287,26 +6036,26 @@
         <f>50*C8</f>
         <v>144.7854334333955</v>
       </c>
-      <c r="F8" s="38"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="22">
         <f>41*D8</f>
         <v>123.80283870916648</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41" t="s">
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="32">
         <f>G3/M7</f>
         <v>3.2258064516129035</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="O8" s="40"/>
-    </row>
-    <row r="9" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="24">
         <v>800</v>
       </c>
@@ -8320,19 +6069,19 @@
         <f t="shared" ref="E9:E15" si="0">50*C9</f>
         <v>86.479872608741005</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="22">
         <f t="shared" ref="G9:G15" si="1">41*D9</f>
         <v>104.77426374531142</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-    </row>
-    <row r="10" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="24">
         <v>500</v>
       </c>
@@ -8346,37 +6095,38 @@
         <f t="shared" si="0"/>
         <v>66.478705233180008</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="22">
         <f t="shared" si="1"/>
         <v>71.346293602678344</v>
       </c>
-      <c r="I10" s="40" t="s">
-        <v>160</v>
+      <c r="I10" s="31" t="s">
+        <v>178</v>
       </c>
       <c r="J10" t="s">
-        <v>182</v>
-      </c>
-      <c r="K10" t="s">
-        <v>176</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="N10" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="K10" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" t="s">
         <v>180</v>
       </c>
-      <c r="P10" s="43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="M10" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q10" s="31"/>
+    </row>
+    <row r="11" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="24">
         <v>400</v>
       </c>
@@ -8390,45 +6140,46 @@
         <f t="shared" si="0"/>
         <v>47.296596875910453</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="22">
         <f t="shared" si="1"/>
         <v>60.167211373284822</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="31">
         <f>B15</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="38">
         <f>E15</f>
         <v>0</v>
       </c>
-      <c r="K11">
-        <f>I11*$N$6</f>
+      <c r="K11" s="50">
+        <f>I11/1000000</f>
         <v>0</v>
       </c>
-      <c r="L11" s="43">
-        <f>J11*$N$6</f>
+      <c r="L11">
+        <f>J11/1000000</f>
         <v>0</v>
       </c>
-      <c r="M11" s="40">
+      <c r="M11" s="34">
         <f>K11-L11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="48">
-        <f>M11/1000</f>
+      <c r="N11" s="40">
+        <f>M11*$G$4</f>
         <v>0</v>
       </c>
-      <c r="O11" s="47">
-        <f>N11*$G$4</f>
+      <c r="O11" s="37">
+        <f>N11/$G$3</f>
         <v>0</v>
       </c>
-      <c r="P11" s="51">
-        <f>O11/$M$8</f>
+      <c r="P11" s="42">
+        <f>O11*$M$7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q11" s="42"/>
+    </row>
+    <row r="12" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="24">
         <v>250</v>
       </c>
@@ -8442,45 +6193,46 @@
         <f t="shared" si="0"/>
         <v>40.879215916391047</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="22">
         <f t="shared" si="1"/>
         <v>41.480940563799237</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="31">
         <f>B14</f>
         <v>100</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12" s="38">
         <f>E14</f>
         <v>16.569231312517449</v>
       </c>
-      <c r="K12">
-        <f>I12*$N$6</f>
-        <v>9.98859E-2</v>
-      </c>
-      <c r="L12" s="43">
-        <f t="shared" ref="L12:L18" si="2">J12*$N$6</f>
-        <v>1.6550325819589866E-2</v>
-      </c>
-      <c r="M12" s="40">
-        <f t="shared" ref="M12:M18" si="3">K12-L12</f>
-        <v>8.3335574180410127E-2</v>
-      </c>
-      <c r="N12" s="48">
-        <f t="shared" ref="N12:N18" si="4">M12/1000</f>
-        <v>8.3335574180410128E-5</v>
-      </c>
-      <c r="O12" s="47">
-        <f>N12*$G$4</f>
-        <v>1.2500336127061519E-3</v>
-      </c>
-      <c r="P12" s="51">
-        <f>O12/$M$8</f>
-        <v>3.8751041993890703E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="K12" s="50">
+        <f t="shared" ref="K12:K18" si="2">I12/1000000</f>
+        <v>1E-4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L18" si="3">J12/1000000</f>
+        <v>1.656923131251745E-5</v>
+      </c>
+      <c r="M12" s="34">
+        <f t="shared" ref="M12:M18" si="4">K12-L12</f>
+        <v>8.3430768687482555E-5</v>
+      </c>
+      <c r="N12" s="40">
+        <f t="shared" ref="N12:N18" si="5">M12*$G$4</f>
+        <v>1.2514615303122383E-3</v>
+      </c>
+      <c r="O12" s="37">
+        <f t="shared" ref="O12:O18" si="6">N12/$G$3</f>
+        <v>3.1286538257805957E-4</v>
+      </c>
+      <c r="P12" s="42">
+        <f>O12*$M$7</f>
+        <v>3.8795307439679386E-4</v>
+      </c>
+      <c r="Q12" s="42"/>
+    </row>
+    <row r="13" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="24">
         <v>200</v>
       </c>
@@ -8494,45 +6246,46 @@
         <f t="shared" si="0"/>
         <v>22.649739069841651</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="22">
         <f t="shared" si="1"/>
         <v>36.194818967299135</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="31">
         <f>B13</f>
         <v>200</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="38">
         <f>E13</f>
         <v>22.649739069841651</v>
       </c>
-      <c r="K13">
-        <f>I13*$N$6</f>
-        <v>0.1997718</v>
-      </c>
-      <c r="L13" s="43">
+      <c r="K13" s="50">
         <f t="shared" si="2"/>
-        <v>2.2623895717562962E-2</v>
-      </c>
-      <c r="M13" s="40">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="3"/>
-        <v>0.17714790428243704</v>
-      </c>
-      <c r="N13" s="48">
-        <f t="shared" si="4"/>
-        <v>1.7714790428243705E-4</v>
-      </c>
-      <c r="O13" s="47">
-        <f t="shared" ref="O12:O18" si="5">N13*$G$4</f>
-        <v>2.6572185642365557E-3</v>
-      </c>
-      <c r="P13" s="51">
-        <f t="shared" ref="P12:P18" si="6">O13/$M$8</f>
-        <v>8.2373775491333221E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+        <v>2.2649739069841652E-5</v>
+      </c>
+      <c r="M13" s="46">
+        <f>K13-L13</f>
+        <v>1.7735026093015837E-4</v>
+      </c>
+      <c r="N13" s="40">
+        <f>M13*$G$4</f>
+        <v>2.6602539139523756E-3</v>
+      </c>
+      <c r="O13" s="37">
+        <f t="shared" si="6"/>
+        <v>6.650634784880939E-4</v>
+      </c>
+      <c r="P13" s="42">
+        <f t="shared" ref="P13:P18" si="7">O13*$M$7</f>
+        <v>8.2467871332523647E-4</v>
+      </c>
+      <c r="Q13" s="42"/>
+    </row>
+    <row r="14" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="24">
         <v>100</v>
       </c>
@@ -8546,45 +6299,46 @@
         <f t="shared" si="0"/>
         <v>16.569231312517449</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="22">
         <f t="shared" si="1"/>
         <v>18.292119890491012</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="31">
         <f>B12</f>
         <v>250</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="38">
         <f>E12</f>
         <v>40.879215916391047</v>
       </c>
-      <c r="K14">
-        <f>I14*$N$6</f>
-        <v>0.24971474999999999</v>
-      </c>
-      <c r="L14" s="43">
+      <c r="K14" s="50">
         <f t="shared" si="2"/>
-        <v>4.0832572731030442E-2</v>
-      </c>
-      <c r="M14" s="40">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="3"/>
-        <v>0.20888217726896954</v>
-      </c>
-      <c r="N14" s="48">
+        <v>4.0879215916391048E-5</v>
+      </c>
+      <c r="M14" s="34">
         <f t="shared" si="4"/>
-        <v>2.0888217726896955E-4</v>
-      </c>
-      <c r="O14" s="47">
+        <v>2.0912078408360894E-4</v>
+      </c>
+      <c r="N14" s="40">
         <f t="shared" si="5"/>
-        <v>3.1332326590345432E-3</v>
-      </c>
-      <c r="P14" s="51">
+        <v>3.1368117612541341E-3</v>
+      </c>
+      <c r="O14" s="37">
         <f t="shared" si="6"/>
-        <v>9.7130212430070835E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.8420294031353354E-4</v>
+      </c>
+      <c r="P14" s="42">
+        <f t="shared" si="7"/>
+        <v>9.7241164598878163E-4</v>
+      </c>
+      <c r="Q14" s="42"/>
+    </row>
+    <row r="15" spans="2:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25">
         <v>0</v>
       </c>
@@ -8598,161 +6352,165 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="39"/>
+      <c r="F15" s="59"/>
       <c r="G15" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="31">
         <f>B11</f>
         <v>400</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="38">
         <f>E11</f>
         <v>47.296596875910453</v>
       </c>
-      <c r="K15">
-        <f>I15*$N$6</f>
-        <v>0.3995436</v>
-      </c>
-      <c r="L15" s="43">
-        <f>J15*$N$6</f>
-        <v>4.7242631458875035E-2</v>
-      </c>
-      <c r="M15" s="40">
+      <c r="K15" s="50">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="3"/>
-        <v>0.35230096854112497</v>
-      </c>
-      <c r="N15" s="48">
+        <v>4.7296596875910455E-5</v>
+      </c>
+      <c r="M15" s="34">
         <f t="shared" si="4"/>
-        <v>3.5230096854112496E-4</v>
-      </c>
-      <c r="O15" s="47">
+        <v>3.5270340312408956E-4</v>
+      </c>
+      <c r="N15" s="40">
         <f t="shared" si="5"/>
-        <v>5.2845145281168746E-3</v>
-      </c>
-      <c r="P15" s="51">
+        <v>5.290551046861343E-3</v>
+      </c>
+      <c r="O15" s="37">
         <f t="shared" si="6"/>
-        <v>1.638199503716231E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="I16" s="40">
+        <v>1.3226377617153358E-3</v>
+      </c>
+      <c r="P15" s="42">
+        <f t="shared" si="7"/>
+        <v>1.6400708245270163E-3</v>
+      </c>
+      <c r="Q15" s="42"/>
+    </row>
+    <row r="16" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="I16" s="31">
         <f>B10</f>
         <v>500</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16" s="38">
         <f>E10</f>
         <v>66.478705233180008</v>
       </c>
-      <c r="K16">
-        <f>I16*$N$6</f>
-        <v>0.49942949999999997</v>
-      </c>
-      <c r="L16" s="43">
+      <c r="K16" s="50">
         <f t="shared" si="2"/>
-        <v>6.640285303050894E-2</v>
-      </c>
-      <c r="M16" s="40">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="3"/>
-        <v>0.433026646969491</v>
-      </c>
-      <c r="N16" s="48">
+        <v>6.647870523318001E-5</v>
+      </c>
+      <c r="M16" s="34">
         <f t="shared" si="4"/>
-        <v>4.3302664696949099E-4</v>
-      </c>
-      <c r="O16" s="47">
+        <v>4.3352129476681997E-4</v>
+      </c>
+      <c r="N16" s="40">
         <f t="shared" si="5"/>
-        <v>6.4953997045423643E-3</v>
-      </c>
-      <c r="P16" s="51">
+        <v>6.5028194215023E-3</v>
+      </c>
+      <c r="O16" s="37">
         <f t="shared" si="6"/>
-        <v>2.0135739084081328E-3</v>
-      </c>
+        <v>1.625704855375575E-3</v>
+      </c>
+      <c r="P16" s="42">
+        <f t="shared" si="7"/>
+        <v>2.015874020665713E-3</v>
+      </c>
+      <c r="Q16" s="42"/>
     </row>
     <row r="17" spans="3:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="40">
+      <c r="I17" s="31">
         <f>B9</f>
         <v>800</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="38">
         <f>E9</f>
         <v>86.479872608741005</v>
       </c>
-      <c r="K17">
-        <f>I17*$N$6</f>
-        <v>0.7990872</v>
-      </c>
-      <c r="L17" s="43">
+      <c r="K17" s="50">
         <f t="shared" si="2"/>
-        <v>8.6381199074094431E-2</v>
-      </c>
-      <c r="M17" s="40">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="3"/>
-        <v>0.71270600092590553</v>
-      </c>
-      <c r="N17" s="48">
+        <v>8.6479872608740999E-5</v>
+      </c>
+      <c r="M17" s="34">
         <f t="shared" si="4"/>
-        <v>7.1270600092590553E-4</v>
-      </c>
-      <c r="O17" s="47">
+        <v>7.1352012739125904E-4</v>
+      </c>
+      <c r="N17" s="40">
         <f t="shared" si="5"/>
-        <v>1.0690590013888583E-2</v>
-      </c>
-      <c r="P17" s="51">
+        <v>1.0702801910868885E-2</v>
+      </c>
+      <c r="O17" s="37">
         <f t="shared" si="6"/>
-        <v>3.3140829043054603E-3</v>
-      </c>
+        <v>2.6757004777172213E-3</v>
+      </c>
+      <c r="P17" s="42">
+        <f t="shared" si="7"/>
+        <v>3.3178685923693544E-3</v>
+      </c>
+      <c r="Q17" s="42"/>
     </row>
     <row r="18" spans="3:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="34"/>
+      <c r="E18" s="54"/>
       <c r="I18">
         <f>B8</f>
         <v>1000</v>
       </c>
-      <c r="J18" s="55">
+      <c r="J18" s="38">
         <f>E8</f>
         <v>144.7854334333955</v>
       </c>
-      <c r="K18">
-        <f>I18*$N$6</f>
-        <v>0.99885899999999994</v>
-      </c>
-      <c r="L18" s="43">
+      <c r="K18" s="50">
         <f t="shared" si="2"/>
-        <v>0.14462023325384799</v>
-      </c>
-      <c r="M18" s="40">
+        <v>1E-3</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="3"/>
-        <v>0.85423876674615196</v>
-      </c>
-      <c r="N18" s="48">
+        <v>1.4478543343339549E-4</v>
+      </c>
+      <c r="M18" s="34">
         <f t="shared" si="4"/>
-        <v>8.5423876674615192E-4</v>
-      </c>
-      <c r="O18" s="47">
+        <v>8.5521456656660459E-4</v>
+      </c>
+      <c r="N18" s="40">
         <f t="shared" si="5"/>
-        <v>1.281358150119228E-2</v>
-      </c>
-      <c r="P18" s="51">
+        <v>1.2828218498499069E-2</v>
+      </c>
+      <c r="O18" s="37">
         <f t="shared" si="6"/>
-        <v>3.972210265369606E-3</v>
-      </c>
+        <v>3.2070546246247673E-3</v>
+      </c>
+      <c r="P18" s="42">
+        <f t="shared" si="7"/>
+        <v>3.9767477345347118E-3</v>
+      </c>
+      <c r="Q18" s="42"/>
     </row>
     <row r="19" spans="3:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="34"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="3:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -8772,505 +6530,432 @@
       <c r="E23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="S23" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="T23" s="49" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="24" spans="3:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="31" t="s">
         <v>160</v>
       </c>
       <c r="J24" t="s">
         <v>182</v>
       </c>
-      <c r="K24" t="s">
-        <v>176</v>
-      </c>
-      <c r="L24" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="M24" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="N24" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="O24" s="40" t="s">
+      <c r="K24" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" t="s">
         <v>180</v>
       </c>
-      <c r="P24" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="S24" s="50">
-        <v>1.2492702656943012E-2</v>
-      </c>
-      <c r="T24" s="53">
-        <f>AVERAGE(O18,O32)</f>
-        <v>1.2970771403069646E-2</v>
-      </c>
+      <c r="M24" s="34" t="str">
+        <f>M10</f>
+        <v>dC (g_solute/mL_liquid)</v>
+      </c>
+      <c r="N24" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="P24" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q24" s="31"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="47"/>
     </row>
     <row r="25" spans="3:20" ht="15" x14ac:dyDescent="0.25">
       <c r="I25">
         <f>I11</f>
         <v>0</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="38">
         <f>G15</f>
         <v>0</v>
       </c>
-      <c r="K25">
-        <f>I25*$N$6</f>
+      <c r="K25" s="49">
+        <f>I25/1000000</f>
         <v>0</v>
       </c>
-      <c r="L25" s="45">
-        <f>J25*$N$6</f>
+      <c r="L25">
+        <f>J25/1000000</f>
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="35">
         <f>K25-L25</f>
         <v>0</v>
       </c>
-      <c r="N25">
-        <f>M25/1000</f>
+      <c r="N25" s="41">
+        <f>M25*$G$4</f>
         <v>0</v>
       </c>
-      <c r="O25" s="44">
-        <f>N25*$G$4</f>
+      <c r="O25" s="41">
+        <f>N25/$G$3</f>
         <v>0</v>
       </c>
-      <c r="P25" s="52">
-        <f>O25/$M$8</f>
+      <c r="P25" s="39">
+        <f>O25*$M$7</f>
         <v>0</v>
       </c>
-      <c r="S25" s="50">
-        <v>1.004167935585E-2</v>
-      </c>
-      <c r="T25" s="53">
-        <f>AVERAGE(O31,O17)</f>
-        <v>1.0553538634616456E-2</v>
-      </c>
+      <c r="Q25" s="48"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="47"/>
     </row>
     <row r="26" spans="3:20" ht="15" x14ac:dyDescent="0.25">
       <c r="I26">
-        <f t="shared" ref="I26:I32" si="7">I12</f>
+        <f t="shared" ref="I26:I32" si="8">I12</f>
         <v>100</v>
       </c>
-      <c r="J26" s="55">
+      <c r="J26" s="38">
         <f>G14</f>
         <v>18.292119890491012</v>
       </c>
-      <c r="K26">
-        <f t="shared" ref="K26:K32" si="8">I26*$N$6</f>
-        <v>9.98859E-2</v>
-      </c>
-      <c r="L26" s="45">
-        <f>J26*$N$6</f>
-        <v>1.8271248581695959E-2</v>
-      </c>
-      <c r="M26">
-        <f t="shared" ref="M26:M32" si="9">K26-L26</f>
-        <v>8.1614651418304041E-2</v>
-      </c>
-      <c r="N26">
-        <f t="shared" ref="N26:N32" si="10">M26/1000</f>
-        <v>8.1614651418304045E-5</v>
-      </c>
-      <c r="O26" s="44">
-        <f>N26*$G$4</f>
-        <v>1.2242197712745606E-3</v>
-      </c>
-      <c r="P26" s="52">
-        <f>O26/$M$8</f>
-        <v>3.7950812909511375E-4</v>
-      </c>
-      <c r="S26" s="50">
-        <v>6.2132151234375E-3</v>
-      </c>
-      <c r="T26" s="53">
-        <f>AVERAGE(O30,O16)</f>
-        <v>6.4589344461585992E-3</v>
-      </c>
+      <c r="K26" s="49">
+        <f t="shared" ref="K26:K32" si="9">I26/1000000</f>
+        <v>1E-4</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26:L32" si="10">J26/1000000</f>
+        <v>1.8292119890491012E-5</v>
+      </c>
+      <c r="M26" s="35">
+        <f>K26-L26</f>
+        <v>8.1707880109508989E-5</v>
+      </c>
+      <c r="N26" s="41">
+        <f t="shared" ref="N26:N32" si="11">M26*$G$4</f>
+        <v>1.2256182016426348E-3</v>
+      </c>
+      <c r="O26" s="41">
+        <f t="shared" ref="O26:O32" si="12">N26/$G$3</f>
+        <v>3.064045504106587E-4</v>
+      </c>
+      <c r="P26" s="39">
+        <f t="shared" ref="P26:P32" si="13">O26*$M$7</f>
+        <v>3.799416425092168E-4</v>
+      </c>
+      <c r="Q26" s="48"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="47"/>
     </row>
     <row r="27" spans="3:20" ht="15" x14ac:dyDescent="0.25">
       <c r="I27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="38">
         <f>G13</f>
         <v>36.194818967299135</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="8"/>
-        <v>0.1997718</v>
-      </c>
-      <c r="L27" s="45">
-        <f>J27*$N$6</f>
-        <v>3.6153520678857444E-2</v>
-      </c>
-      <c r="M27">
+      <c r="K27" s="49">
         <f t="shared" si="9"/>
-        <v>0.16361827932114256</v>
-      </c>
-      <c r="N27">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="10"/>
-        <v>1.6361827932114255E-4</v>
-      </c>
-      <c r="O27" s="44">
-        <f t="shared" ref="O26:O32" si="11">N27*$G$4</f>
-        <v>2.4542741898171383E-3</v>
-      </c>
-      <c r="P27" s="52">
-        <f t="shared" ref="P26:P32" si="12">O27/$M$8</f>
-        <v>7.6082499884331286E-4</v>
-      </c>
-      <c r="S27" s="50">
-        <v>4.9371677566425005E-3</v>
-      </c>
-      <c r="T27" s="53">
-        <f>AVERAGE(O29,O15)</f>
-        <v>5.1880950596701284E-3</v>
-      </c>
+        <v>3.6194818967299134E-5</v>
+      </c>
+      <c r="M27" s="35">
+        <f t="shared" ref="M27:M32" si="14">K27-L27</f>
+        <v>1.6380518103270087E-4</v>
+      </c>
+      <c r="N27" s="41">
+        <f t="shared" si="11"/>
+        <v>2.457077715490513E-3</v>
+      </c>
+      <c r="O27" s="41">
+        <f t="shared" si="12"/>
+        <v>6.1426942887262824E-4</v>
+      </c>
+      <c r="P27" s="39">
+        <f t="shared" si="13"/>
+        <v>7.6169409180205905E-4</v>
+      </c>
+      <c r="Q27" s="48"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="47"/>
     </row>
     <row r="28" spans="3:20" ht="15" x14ac:dyDescent="0.25">
       <c r="I28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
-      <c r="J28" s="55">
+      <c r="J28" s="38">
         <f>G12</f>
         <v>41.480940563799237</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="8"/>
-        <v>0.24971474999999999</v>
-      </c>
-      <c r="L28" s="45">
-        <f>J28*$N$6</f>
-        <v>4.1433610810615938E-2</v>
-      </c>
-      <c r="M28">
+      <c r="K28" s="49">
         <f t="shared" si="9"/>
-        <v>0.20828113918938404</v>
-      </c>
-      <c r="N28">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="10"/>
-        <v>2.0828113918938405E-4</v>
-      </c>
-      <c r="O28" s="44">
+        <v>4.1480940563799239E-5</v>
+      </c>
+      <c r="M28" s="35">
+        <f t="shared" si="14"/>
+        <v>2.0851905943620075E-4</v>
+      </c>
+      <c r="N28" s="41">
         <f t="shared" si="11"/>
-        <v>3.1242170878407606E-3</v>
-      </c>
-      <c r="P28" s="52">
+        <v>3.1277858915430114E-3</v>
+      </c>
+      <c r="O28" s="41">
         <f t="shared" si="12"/>
-        <v>9.6850729723063568E-4</v>
-      </c>
-      <c r="S28" s="50">
-        <v>3.0809680997624994E-3</v>
-      </c>
-      <c r="T28" s="53">
-        <f>AVERAGE(O28,O14)</f>
-        <v>3.1287248734376519E-3</v>
-      </c>
+        <v>7.8194647288575285E-4</v>
+      </c>
+      <c r="P28" s="39">
+        <f t="shared" si="13"/>
+        <v>9.6961362637833356E-4</v>
+      </c>
+      <c r="Q28" s="48"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="47"/>
     </row>
     <row r="29" spans="3:20" ht="15" x14ac:dyDescent="0.25">
       <c r="I29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="J29" s="55">
+      <c r="J29" s="38">
         <f>G11</f>
         <v>60.167211373284822</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="8"/>
-        <v>0.3995436</v>
-      </c>
-      <c r="L29" s="45">
-        <f>J29*$N$6</f>
-        <v>6.0098560585107902E-2</v>
-      </c>
-      <c r="M29">
+      <c r="K29" s="49">
         <f t="shared" si="9"/>
-        <v>0.33944503941489212</v>
-      </c>
-      <c r="N29">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="10"/>
-        <v>3.394450394148921E-4</v>
-      </c>
-      <c r="O29" s="44">
+        <v>6.0167211373284823E-5</v>
+      </c>
+      <c r="M29" s="35">
+        <f t="shared" si="14"/>
+        <v>3.3983278862671518E-4</v>
+      </c>
+      <c r="N29" s="41">
         <f t="shared" si="11"/>
-        <v>5.0916755912233814E-3</v>
-      </c>
-      <c r="P29" s="52">
+        <v>5.0974918294007278E-3</v>
+      </c>
+      <c r="O29" s="41">
         <f t="shared" si="12"/>
-        <v>1.5784194332792482E-3</v>
-      </c>
-      <c r="S29" s="50">
-        <v>2.46222738936E-3</v>
-      </c>
-      <c r="T29" s="53">
-        <f>AVERAGE(O27,O13)</f>
-        <v>2.555746377026847E-3</v>
-      </c>
+        <v>1.2743729573501819E-3</v>
+      </c>
+      <c r="P29" s="39">
+        <f t="shared" si="13"/>
+        <v>1.5802224671142256E-3</v>
+      </c>
+      <c r="Q29" s="48"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="47"/>
     </row>
     <row r="30" spans="3:20" ht="15" x14ac:dyDescent="0.25">
       <c r="I30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
-      <c r="J30" s="55">
+      <c r="J30" s="38">
         <f>G10</f>
         <v>71.346293602678344</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="8"/>
-        <v>0.49942949999999997</v>
-      </c>
-      <c r="L30" s="45">
-        <f>J30*$N$6</f>
-        <v>7.1264887481677683E-2</v>
-      </c>
-      <c r="M30">
+      <c r="K30" s="49">
         <f t="shared" si="9"/>
-        <v>0.42816461251832227</v>
-      </c>
-      <c r="N30">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="10"/>
-        <v>4.2816461251832228E-4</v>
-      </c>
-      <c r="O30" s="44">
+        <v>7.1346293602678347E-5</v>
+      </c>
+      <c r="M30" s="35">
+        <f t="shared" si="14"/>
+        <v>4.2865370639732169E-4</v>
+      </c>
+      <c r="N30" s="41">
         <f t="shared" si="11"/>
-        <v>6.422469187774834E-3</v>
-      </c>
-      <c r="P30" s="52">
+        <v>6.4298055959598251E-3</v>
+      </c>
+      <c r="O30" s="41">
         <f t="shared" si="12"/>
-        <v>1.9909654482101985E-3</v>
-      </c>
-      <c r="S30" s="50">
-        <v>1.1735494505099998E-3</v>
-      </c>
-      <c r="T30" s="53">
-        <f>AVERAGE(O26,O12)</f>
-        <v>1.2371266919903564E-3</v>
-      </c>
+        <v>1.6074513989899563E-3</v>
+      </c>
+      <c r="P30" s="39">
+        <f t="shared" si="13"/>
+        <v>1.9932397347475457E-3</v>
+      </c>
+      <c r="Q30" s="48"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="47"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="I31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>800</v>
       </c>
-      <c r="J31" s="55">
+      <c r="J31" s="38">
         <f>G9</f>
         <v>104.77426374531142</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="8"/>
-        <v>0.7990872</v>
-      </c>
-      <c r="L31" s="45">
-        <f>J31*$N$6</f>
-        <v>0.10465471631037801</v>
-      </c>
-      <c r="M31">
+      <c r="K31" s="49">
         <f t="shared" si="9"/>
-        <v>0.69443248368962196</v>
-      </c>
-      <c r="N31">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="10"/>
-        <v>6.9443248368962192E-4</v>
-      </c>
-      <c r="O31" s="44">
+        <v>1.0477426374531142E-4</v>
+      </c>
+      <c r="M31" s="35">
+        <f t="shared" si="14"/>
+        <v>6.9522573625468856E-4</v>
+      </c>
+      <c r="N31" s="41">
         <f t="shared" si="11"/>
-        <v>1.0416487255344329E-2</v>
-      </c>
-      <c r="P31" s="52">
+        <v>1.0428386043820329E-2</v>
+      </c>
+      <c r="O31" s="41">
         <f t="shared" si="12"/>
-        <v>3.2291110491567418E-3</v>
-      </c>
+        <v>2.6070965109550822E-3</v>
+      </c>
+      <c r="P31" s="39">
+        <f t="shared" si="13"/>
+        <v>3.2327996735843018E-3</v>
+      </c>
+      <c r="Q31" s="48"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="I32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="J32" s="55">
+      <c r="J32" s="38">
         <f>G8</f>
         <v>123.80283870916648</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="8"/>
-        <v>0.99885899999999994</v>
-      </c>
-      <c r="L32" s="45">
-        <f>J32*$N$6</f>
-        <v>0.12366157967019932</v>
-      </c>
-      <c r="M32">
+      <c r="K32" s="49">
         <f t="shared" si="9"/>
-        <v>0.87519742032980063</v>
-      </c>
-      <c r="N32">
+        <v>1E-3</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="10"/>
-        <v>8.7519742032980067E-4</v>
-      </c>
-      <c r="O32" s="44">
+        <v>1.2380283870916647E-4</v>
+      </c>
+      <c r="M32" s="35">
+        <f t="shared" si="14"/>
+        <v>8.7619716129083355E-4</v>
+      </c>
+      <c r="N32" s="41">
         <f t="shared" si="11"/>
-        <v>1.3127961304947011E-2</v>
-      </c>
-      <c r="P32" s="52">
+        <v>1.3142957419362503E-2</v>
+      </c>
+      <c r="O32" s="41">
         <f t="shared" si="12"/>
-        <v>4.0696680045335734E-3</v>
-      </c>
+        <v>3.2857393548406258E-3</v>
+      </c>
+      <c r="P32" s="39">
+        <f t="shared" si="13"/>
+        <v>4.0743168000023757E-3</v>
+      </c>
+      <c r="Q32" s="48"/>
     </row>
     <row r="36" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L36" s="46" t="str">
-        <f>L24</f>
-        <v>Ce (g_solute/L_liquid)</v>
-      </c>
-      <c r="M36" s="46" t="str">
-        <f>P24</f>
-        <v>qe (g_solute/mL_resin)</v>
-      </c>
-      <c r="O36" s="46" t="str">
-        <f>L36</f>
-        <v>Ce (g_solute/L_liquid)</v>
-      </c>
-      <c r="P36" s="46" t="str">
-        <f>M36</f>
-        <v>qe (g_solute/mL_resin)</v>
+      <c r="L36" s="36" t="str">
+        <f>L10</f>
+        <v>Ce (g_solute/mL_liquid)</v>
+      </c>
+      <c r="M36" s="36" t="str">
+        <f>P10</f>
+        <v>Qe (g_solute/mL_resin)</v>
       </c>
     </row>
     <row r="37" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L37" s="54">
-        <f>AVERAGE(L11,L25)</f>
+      <c r="L37" s="44">
+        <f>AVERAGE(L11, L25)</f>
         <v>0</v>
       </c>
-      <c r="M37" s="46">
+      <c r="M37" s="43">
         <f>AVERAGE(P11,P25)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="46">
-        <v>0</v>
-      </c>
-      <c r="P37" s="46">
-        <v>0</v>
-      </c>
     </row>
     <row r="38" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L38" s="54">
-        <f t="shared" ref="L38:L44" si="13">AVERAGE(L12,L26)</f>
-        <v>1.7410787200642912E-2</v>
-      </c>
-      <c r="M38" s="46">
-        <f>AVERAGE(P12,P26)</f>
-        <v>3.8350927451701039E-4</v>
-      </c>
-      <c r="O38" s="56">
-        <v>2.1649269965999998E-2</v>
-      </c>
-      <c r="P38" s="57">
-        <v>3.5793258240554999E-4</v>
-      </c>
+      <c r="L38" s="44">
+        <f t="shared" ref="L38:L43" si="15">AVERAGE(L12, L26)</f>
+        <v>1.7430675601504233E-5</v>
+      </c>
+      <c r="M38" s="43">
+        <f t="shared" ref="M38:M44" si="16">AVERAGE(P12,P26)</f>
+        <v>3.8394735845300533E-4</v>
+      </c>
+      <c r="O38" s="45"/>
+      <c r="P38" s="42"/>
     </row>
     <row r="39" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L39" s="54">
-        <f t="shared" si="13"/>
-        <v>2.9388708198210205E-2</v>
-      </c>
-      <c r="M39" s="46">
-        <f t="shared" ref="M38:M44" si="14">AVERAGE(P13,P27)</f>
-        <v>7.9228137687832254E-4</v>
-      </c>
-      <c r="O39" s="56">
-        <v>3.5623307375999995E-2</v>
-      </c>
-      <c r="P39" s="57">
-        <v>7.509793537547999E-4</v>
-      </c>
+      <c r="L39" s="44">
+        <f t="shared" si="15"/>
+        <v>2.9422279018570391E-5</v>
+      </c>
+      <c r="M39" s="43">
+        <f t="shared" si="16"/>
+        <v>7.9318640256364776E-4</v>
+      </c>
+      <c r="O39" s="45"/>
+      <c r="P39" s="42"/>
     </row>
     <row r="40" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L40" s="54">
-        <f>AVERAGE(L14,L28)</f>
-        <v>4.1133091770823194E-2</v>
-      </c>
-      <c r="M40" s="46">
-        <f t="shared" si="14"/>
-        <v>9.6990471076567196E-4</v>
-      </c>
-      <c r="O40" s="56">
-        <v>4.4316876682499992E-2</v>
-      </c>
-      <c r="P40" s="57">
-        <v>9.3969527042756234E-4</v>
-      </c>
+      <c r="L40" s="44">
+        <f t="shared" si="15"/>
+        <v>4.1180078240095143E-5</v>
+      </c>
+      <c r="M40" s="43">
+        <f t="shared" si="16"/>
+        <v>9.710126361835576E-4</v>
+      </c>
+      <c r="O40" s="45"/>
+      <c r="P40" s="42"/>
     </row>
     <row r="41" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L41" s="54">
-        <f t="shared" si="13"/>
-        <v>5.3670596021991465E-2</v>
-      </c>
-      <c r="M41" s="46">
-        <f t="shared" si="14"/>
-        <v>1.6083094684977396E-3</v>
-      </c>
-      <c r="O41" s="56">
-        <v>7.0399082890499995E-2</v>
-      </c>
-      <c r="P41" s="57">
-        <v>1.5058361657759628E-3</v>
-      </c>
+      <c r="L41" s="44">
+        <f t="shared" si="15"/>
+        <v>5.3731904124597636E-5</v>
+      </c>
+      <c r="M41" s="43">
+        <f t="shared" si="16"/>
+        <v>1.610146645820621E-3</v>
+      </c>
+      <c r="O41" s="45"/>
+      <c r="P41" s="42"/>
     </row>
     <row r="42" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L42" s="54">
-        <f t="shared" si="13"/>
-        <v>6.8833870256093305E-2</v>
-      </c>
-      <c r="M42" s="46">
-        <f t="shared" si="14"/>
-        <v>2.0022696783091659E-3</v>
-      </c>
-      <c r="O42" s="56">
-        <v>8.5215158437499994E-2</v>
-      </c>
-      <c r="P42" s="57">
-        <v>1.8950306126484374E-3</v>
-      </c>
+      <c r="L42" s="44">
+        <f t="shared" si="15"/>
+        <v>6.8912499417929179E-5</v>
+      </c>
+      <c r="M42" s="43">
+        <f t="shared" si="16"/>
+        <v>2.0045568777066294E-3</v>
+      </c>
+      <c r="O42" s="45"/>
+      <c r="P42" s="42"/>
     </row>
     <row r="43" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L43" s="54">
-        <f t="shared" si="13"/>
-        <v>9.5517957692236227E-2</v>
-      </c>
-      <c r="M43" s="46">
-        <f t="shared" si="14"/>
-        <v>3.2715969767311013E-3</v>
-      </c>
-      <c r="O43" s="56">
-        <v>0.12964190960999999</v>
-      </c>
-      <c r="P43" s="57">
-        <v>3.0627122035342498E-3</v>
-      </c>
+      <c r="L43" s="44">
+        <f t="shared" si="15"/>
+        <v>9.562706817702621E-5</v>
+      </c>
+      <c r="M43" s="43">
+        <f t="shared" si="16"/>
+        <v>3.2753341329768279E-3</v>
+      </c>
+      <c r="O43" s="45"/>
+      <c r="P43" s="42"/>
     </row>
     <row r="44" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L44" s="54">
-        <f t="shared" si="13"/>
-        <v>0.13414090646202365</v>
-      </c>
-      <c r="M44" s="46">
-        <f t="shared" si="14"/>
-        <v>4.0209391349515892E-3</v>
-      </c>
-      <c r="O44" s="56">
-        <v>0.16601215620379922</v>
-      </c>
-      <c r="P44" s="57">
-        <v>3.8102743103676185E-3</v>
-      </c>
+      <c r="L44" s="44">
+        <f>AVERAGE(L18, L32)</f>
+        <v>1.3429413607128098E-4</v>
+      </c>
+      <c r="M44" s="43">
+        <f t="shared" si="16"/>
+        <v>4.0255322672685442E-3</v>
+      </c>
+      <c r="O44" s="45"/>
+      <c r="P44" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9290,7 +6975,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/case3_Borate/Excel_Files/purolite pcr642Ca Adsorption data.xlsx
+++ b/case3_Borate/Excel_Files/purolite pcr642Ca Adsorption data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3424ABC5-F4D1-46CB-9F05-91AF49DE730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B12FAC-FB76-4C74-A142-A9B4A3AA3C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conc. in Calib Units" sheetId="3" r:id="rId1"/>
@@ -631,9 +631,9 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000E+00"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.00000000"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
     <numFmt numFmtId="171" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="174" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1067,7 +1067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1151,8 +1151,6 @@
     <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1186,6 +1184,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="174" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1371,10 +1370,18 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>PCR-642.Ca</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$L$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ce (g_solute/mL_liquid)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1395,39 +1402,11 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$L$37:$L$44</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000</c:formatCode>
+                <c:formatCode>0.00000000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1455,44 +1434,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$M$37:$M$44</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8394735845300533E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.9318640256364776E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.710126361835576E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.610146645820621E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0045568777066294E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.2753341329768279E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0255322672685442E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-159C-4878-BADD-B53DD900FFAA}"/>
+              <c16:uniqueId val="{00000002-37DA-42C8-BF31-8063822F3877}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1500,7 +1446,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>UBK-530</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$M$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qe (g_solute/mL_resin)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1524,28 +1478,43 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$37:$O$44</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$37:$P$44</c:f>
+              <c:f>Sheet1!$M$37:$M$44</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00000000000</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1947358453005335E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9186402563647686E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1012636183557596E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.22146645820621E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4455687770662933E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9933413297682817E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0553226726854352E-4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-159C-4878-BADD-B53DD900FFAA}"/>
+              <c16:uniqueId val="{00000003-37DA-42C8-BF31-8063822F3877}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1681,6 +1650,8 @@
         <c:axId val="445840528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-3"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1753,7 +1724,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1793,7 +1764,8 @@
         <c:crossAx val="445836208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1.0000000000000002E-3"/>
+        <c:majorUnit val="2.0000000000000006E-4"/>
+        <c:minorUnit val="2.0000000000000006E-4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2945,21 +2917,21 @@
       <c r="A1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -5896,10 +5868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6828CF-0838-4573-8335-33E9026E31D7}">
-  <dimension ref="B2:T44"/>
+  <dimension ref="A2:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="188" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5916,21 +5888,21 @@
     <col min="16" max="16" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="55" t="s">
+    <row r="2" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="55"/>
-    </row>
-    <row r="3" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="53"/>
+    </row>
+    <row r="3" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="26" t="s">
         <v>155</v>
       </c>
@@ -5941,7 +5913,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F4" s="26" t="s">
         <v>156</v>
       </c>
@@ -5952,31 +5924,31 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="53" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="54"/>
-    </row>
-    <row r="6" spans="2:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="53" t="s">
+      <c r="F5" s="54"/>
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="53" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="52"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="32">
@@ -5992,7 +5964,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>160</v>
       </c>
@@ -6005,7 +5977,7 @@
       <c r="E7" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="20" t="s">
         <v>154</v>
       </c>
@@ -6022,9 +5994,13 @@
       </c>
       <c r="O7" s="32"/>
     </row>
-    <row r="8" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>1000</v>
+      </c>
       <c r="B8" s="24">
-        <v>1000</v>
+        <f>A8*0.2</f>
+        <v>200</v>
       </c>
       <c r="C8" s="10">
         <v>2.8957086686679099</v>
@@ -6036,7 +6012,7 @@
         <f>50*C8</f>
         <v>144.7854334333955</v>
       </c>
-      <c r="F8" s="58"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="22">
         <f>41*D8</f>
         <v>123.80283870916648</v>
@@ -6055,9 +6031,13 @@
       </c>
       <c r="O8" s="31"/>
     </row>
-    <row r="9" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>800</v>
+      </c>
       <c r="B9" s="24">
-        <v>800</v>
+        <f t="shared" ref="B9:B15" si="0">A9*0.2</f>
+        <v>160</v>
       </c>
       <c r="C9" s="11">
         <v>1.7295974521748201</v>
@@ -6066,12 +6046,12 @@
         <v>2.55546984744662</v>
       </c>
       <c r="E9" s="21">
-        <f t="shared" ref="E9:E15" si="0">50*C9</f>
+        <f t="shared" ref="E9:E15" si="1">50*C9</f>
         <v>86.479872608741005</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="22">
-        <f t="shared" ref="G9:G15" si="1">41*D9</f>
+        <f t="shared" ref="G9:G15" si="2">41*D9</f>
         <v>104.77426374531142</v>
       </c>
       <c r="J9" s="31"/>
@@ -6081,9 +6061,13 @@
       <c r="N9" s="31"/>
       <c r="O9" s="31"/>
     </row>
-    <row r="10" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>500</v>
+      </c>
       <c r="B10" s="24">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="C10" s="12">
         <v>1.3295741046636</v>
@@ -6092,12 +6076,12 @@
         <v>1.74015350250435</v>
       </c>
       <c r="E10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.478705233180008</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71.346293602678344</v>
       </c>
       <c r="I10" s="31" t="s">
@@ -6106,7 +6090,7 @@
       <c r="J10" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="49" t="s">
+      <c r="K10" s="47" t="s">
         <v>181</v>
       </c>
       <c r="L10" t="s">
@@ -6126,9 +6110,13 @@
       </c>
       <c r="Q10" s="31"/>
     </row>
-    <row r="11" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>400</v>
+      </c>
       <c r="B11" s="24">
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="C11" s="11">
         <v>0.94593193751820903</v>
@@ -6137,12 +6125,12 @@
         <v>1.4674929603240201</v>
       </c>
       <c r="E11" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47.296596875910453</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.167211373284822</v>
       </c>
       <c r="I11" s="31">
@@ -6153,7 +6141,7 @@
         <f>E15</f>
         <v>0</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="48">
         <f>I11/1000000</f>
         <v>0</v>
       </c>
@@ -6179,9 +6167,13 @@
       </c>
       <c r="Q11" s="42"/>
     </row>
-    <row r="12" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>250</v>
+      </c>
       <c r="B12" s="24">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="C12" s="12">
         <v>0.81758431832782097</v>
@@ -6190,51 +6182,55 @@
         <v>1.01173025765364</v>
       </c>
       <c r="E12" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40.879215916391047</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.480940563799237</v>
       </c>
       <c r="I12" s="31">
         <f>B14</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J12" s="38">
         <f>E14</f>
         <v>16.569231312517449</v>
       </c>
-      <c r="K12" s="50">
-        <f t="shared" ref="K12:K18" si="2">I12/1000000</f>
-        <v>1E-4</v>
+      <c r="K12" s="48">
+        <f t="shared" ref="K12:K18" si="3">I12/1000000</f>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:L18" si="3">J12/1000000</f>
+        <f t="shared" ref="L12:L18" si="4">J12/1000000</f>
         <v>1.656923131251745E-5</v>
       </c>
       <c r="M12" s="34">
-        <f t="shared" ref="M12:M18" si="4">K12-L12</f>
-        <v>8.3430768687482555E-5</v>
+        <f t="shared" ref="M12:M18" si="5">K12-L12</f>
+        <v>3.430768687482552E-6</v>
       </c>
       <c r="N12" s="40">
-        <f t="shared" ref="N12:N18" si="5">M12*$G$4</f>
-        <v>1.2514615303122383E-3</v>
+        <f t="shared" ref="N12:N18" si="6">M12*$G$4</f>
+        <v>5.1461530312238283E-5</v>
       </c>
       <c r="O12" s="37">
-        <f t="shared" ref="O12:O18" si="6">N12/$G$3</f>
-        <v>3.1286538257805957E-4</v>
+        <f t="shared" ref="O12:O18" si="7">N12/$G$3</f>
+        <v>1.2865382578059571E-5</v>
       </c>
       <c r="P12" s="42">
         <f>O12*$M$7</f>
-        <v>3.8795307439679386E-4</v>
+        <v>1.5953074396793869E-5</v>
       </c>
       <c r="Q12" s="42"/>
     </row>
-    <row r="13" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>200</v>
+      </c>
       <c r="B13" s="24">
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="C13" s="11">
         <v>0.45299478139683302</v>
@@ -6243,51 +6239,55 @@
         <v>0.88280046261705203</v>
       </c>
       <c r="E13" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.649739069841651</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.194818967299135</v>
       </c>
       <c r="I13" s="31">
         <f>B13</f>
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="J13" s="38">
         <f>E13</f>
         <v>22.649739069841651</v>
       </c>
-      <c r="K13" s="50">
-        <f t="shared" si="2"/>
-        <v>2.0000000000000001E-4</v>
+      <c r="K13" s="48">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2649739069841652E-5</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="44">
         <f>K13-L13</f>
-        <v>1.7735026093015837E-4</v>
+        <v>1.7350260930158351E-5</v>
       </c>
       <c r="N13" s="40">
         <f>M13*$G$4</f>
-        <v>2.6602539139523756E-3</v>
+        <v>2.6025391395237526E-4</v>
       </c>
       <c r="O13" s="37">
-        <f t="shared" si="6"/>
-        <v>6.650634784880939E-4</v>
+        <f t="shared" si="7"/>
+        <v>6.5063478488093816E-5</v>
       </c>
       <c r="P13" s="42">
-        <f t="shared" ref="P13:P18" si="7">O13*$M$7</f>
-        <v>8.2467871332523647E-4</v>
+        <f t="shared" ref="P13:P18" si="8">O13*$M$7</f>
+        <v>8.0678713325236338E-5</v>
       </c>
       <c r="Q13" s="42"/>
     </row>
-    <row r="14" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>100</v>
+      </c>
       <c r="B14" s="24">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="C14" s="12">
         <v>0.33138462625034898</v>
@@ -6296,50 +6296,54 @@
         <v>0.44614926562173202</v>
       </c>
       <c r="E14" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.569231312517449</v>
       </c>
-      <c r="F14" s="58"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.292119890491012</v>
       </c>
       <c r="I14" s="31">
         <f>B12</f>
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="J14" s="38">
         <f>E12</f>
         <v>40.879215916391047</v>
       </c>
-      <c r="K14" s="50">
-        <f t="shared" si="2"/>
-        <v>2.5000000000000001E-4</v>
+      <c r="K14" s="48">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0879215916391048E-5</v>
       </c>
       <c r="M14" s="34">
-        <f t="shared" si="4"/>
-        <v>2.0912078408360894E-4</v>
+        <f t="shared" si="5"/>
+        <v>9.120784083608954E-6</v>
       </c>
       <c r="N14" s="40">
-        <f t="shared" si="5"/>
-        <v>3.1368117612541341E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.368117612541343E-4</v>
       </c>
       <c r="O14" s="37">
-        <f t="shared" si="6"/>
-        <v>7.8420294031353354E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.4202940313533576E-5</v>
       </c>
       <c r="P14" s="42">
-        <f t="shared" si="7"/>
-        <v>9.7241164598878163E-4</v>
+        <f t="shared" si="8"/>
+        <v>4.2411645988781636E-5</v>
       </c>
       <c r="Q14" s="42"/>
     </row>
-    <row r="15" spans="2:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25">
+    <row r="15" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
+        <v>0</v>
+      </c>
+      <c r="B15" s="24">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C15" s="13">
@@ -6349,115 +6353,115 @@
         <v>0</v>
       </c>
       <c r="E15" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="F15" s="57"/>
+      <c r="G15" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I15" s="31">
         <f>B11</f>
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="J15" s="38">
         <f>E11</f>
         <v>47.296596875910453</v>
       </c>
-      <c r="K15" s="50">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000002E-4</v>
+      <c r="K15" s="48">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7296596875910455E-5</v>
       </c>
       <c r="M15" s="34">
-        <f t="shared" si="4"/>
-        <v>3.5270340312408956E-4</v>
+        <f t="shared" si="5"/>
+        <v>3.2703403124089552E-5</v>
       </c>
       <c r="N15" s="40">
-        <f t="shared" si="5"/>
-        <v>5.290551046861343E-3</v>
+        <f t="shared" si="6"/>
+        <v>4.9055104686134324E-4</v>
       </c>
       <c r="O15" s="37">
-        <f t="shared" si="6"/>
-        <v>1.3226377617153358E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.2263776171533581E-4</v>
       </c>
       <c r="P15" s="42">
-        <f t="shared" si="7"/>
-        <v>1.6400708245270163E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.5207082452701641E-4</v>
       </c>
       <c r="Q15" s="42"/>
     </row>
-    <row r="16" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="I16" s="31">
         <f>B10</f>
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J16" s="38">
         <f>E10</f>
         <v>66.478705233180008</v>
       </c>
-      <c r="K16" s="50">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-4</v>
+      <c r="K16" s="48">
+        <f t="shared" si="3"/>
+        <v>1E-4</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.647870523318001E-5</v>
       </c>
       <c r="M16" s="34">
-        <f t="shared" si="4"/>
-        <v>4.3352129476681997E-4</v>
+        <f t="shared" si="5"/>
+        <v>3.3521294766819995E-5</v>
       </c>
       <c r="N16" s="40">
-        <f t="shared" si="5"/>
-        <v>6.5028194215023E-3</v>
+        <f t="shared" si="6"/>
+        <v>5.0281942150229991E-4</v>
       </c>
       <c r="O16" s="37">
-        <f t="shared" si="6"/>
-        <v>1.625704855375575E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.2570485537557498E-4</v>
       </c>
       <c r="P16" s="42">
-        <f t="shared" si="7"/>
-        <v>2.015874020665713E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.5587402066571298E-4</v>
       </c>
       <c r="Q16" s="42"/>
     </row>
     <row r="17" spans="3:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="31">
         <f>B9</f>
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="J17" s="38">
         <f>E9</f>
         <v>86.479872608741005</v>
       </c>
-      <c r="K17" s="50">
-        <f t="shared" si="2"/>
-        <v>8.0000000000000004E-4</v>
+      <c r="K17" s="48">
+        <f t="shared" si="3"/>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6479872608740999E-5</v>
       </c>
       <c r="M17" s="34">
-        <f t="shared" si="4"/>
-        <v>7.1352012739125904E-4</v>
+        <f t="shared" si="5"/>
+        <v>7.3520127391259014E-5</v>
       </c>
       <c r="N17" s="40">
-        <f t="shared" si="5"/>
-        <v>1.0702801910868885E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.1028019108688851E-3</v>
       </c>
       <c r="O17" s="37">
-        <f t="shared" si="6"/>
-        <v>2.6757004777172213E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.7570047771722128E-4</v>
       </c>
       <c r="P17" s="42">
-        <f t="shared" si="7"/>
-        <v>3.3178685923693544E-3</v>
+        <f t="shared" si="8"/>
+        <v>3.4186859236935442E-4</v>
       </c>
       <c r="Q17" s="42"/>
     </row>
@@ -6465,41 +6469,41 @@
       <c r="C18" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="54"/>
+      <c r="E18" s="52"/>
       <c r="I18">
         <f>B8</f>
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="J18" s="38">
         <f>E8</f>
         <v>144.7854334333955</v>
       </c>
-      <c r="K18" s="50">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+      <c r="K18" s="48">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4478543343339549E-4</v>
       </c>
       <c r="M18" s="34">
-        <f t="shared" si="4"/>
-        <v>8.5521456656660459E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.5214566566604521E-5</v>
       </c>
       <c r="N18" s="40">
-        <f t="shared" si="5"/>
-        <v>1.2828218498499069E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.2821849849906779E-4</v>
       </c>
       <c r="O18" s="37">
-        <f t="shared" si="6"/>
-        <v>3.2070546246247673E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.0705462462476695E-4</v>
       </c>
       <c r="P18" s="42">
-        <f t="shared" si="7"/>
-        <v>3.9767477345347118E-3</v>
+        <f t="shared" si="8"/>
+        <v>2.5674773453471104E-4</v>
       </c>
       <c r="Q18" s="42"/>
     </row>
@@ -6507,10 +6511,10 @@
       <c r="C19" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="54"/>
+      <c r="E19" s="52"/>
     </row>
     <row r="20" spans="3:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -6538,7 +6542,7 @@
       <c r="J24" t="s">
         <v>182</v>
       </c>
-      <c r="K24" s="49" t="s">
+      <c r="K24" s="47" t="s">
         <v>181</v>
       </c>
       <c r="L24" t="s">
@@ -6558,8 +6562,8 @@
         <v>186</v>
       </c>
       <c r="Q24" s="31"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="47"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="45"/>
     </row>
     <row r="25" spans="3:20" ht="15" x14ac:dyDescent="0.25">
       <c r="I25">
@@ -6570,7 +6574,7 @@
         <f>G15</f>
         <v>0</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="47">
         <f>I25/1000000</f>
         <v>0</v>
       </c>
@@ -6594,264 +6598,264 @@
         <f>O25*$M$7</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="48"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="47"/>
+      <c r="Q25" s="46"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="45"/>
     </row>
     <row r="26" spans="3:20" ht="15" x14ac:dyDescent="0.25">
       <c r="I26">
-        <f t="shared" ref="I26:I32" si="8">I12</f>
-        <v>100</v>
+        <f t="shared" ref="I26:I32" si="9">I12</f>
+        <v>20</v>
       </c>
       <c r="J26" s="38">
         <f>G14</f>
         <v>18.292119890491012</v>
       </c>
-      <c r="K26" s="49">
-        <f t="shared" ref="K26:K32" si="9">I26/1000000</f>
-        <v>1E-4</v>
+      <c r="K26" s="47">
+        <f t="shared" ref="K26:K32" si="10">I26/1000000</f>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26:L32" si="10">J26/1000000</f>
+        <f t="shared" ref="L26:L32" si="11">J26/1000000</f>
         <v>1.8292119890491012E-5</v>
       </c>
       <c r="M26" s="35">
         <f>K26-L26</f>
-        <v>8.1707880109508989E-5</v>
+        <v>1.7078801095089897E-6</v>
       </c>
       <c r="N26" s="41">
-        <f t="shared" ref="N26:N32" si="11">M26*$G$4</f>
-        <v>1.2256182016426348E-3</v>
+        <f t="shared" ref="N26:N32" si="12">M26*$G$4</f>
+        <v>2.5618201642634845E-5</v>
       </c>
       <c r="O26" s="41">
-        <f t="shared" ref="O26:O32" si="12">N26/$G$3</f>
-        <v>3.064045504106587E-4</v>
+        <f t="shared" ref="O26:O32" si="13">N26/$G$3</f>
+        <v>6.4045504106587112E-6</v>
       </c>
       <c r="P26" s="39">
-        <f t="shared" ref="P26:P32" si="13">O26*$M$7</f>
-        <v>3.799416425092168E-4</v>
-      </c>
-      <c r="Q26" s="48"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="47"/>
+        <f t="shared" ref="P26:P32" si="14">O26*$M$7</f>
+        <v>7.9416425092168026E-6</v>
+      </c>
+      <c r="Q26" s="46"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="45"/>
     </row>
     <row r="27" spans="3:20" ht="15" x14ac:dyDescent="0.25">
       <c r="I27">
-        <f t="shared" si="8"/>
-        <v>200</v>
+        <f t="shared" si="9"/>
+        <v>40</v>
       </c>
       <c r="J27" s="38">
         <f>G13</f>
         <v>36.194818967299135</v>
       </c>
-      <c r="K27" s="49">
-        <f t="shared" si="9"/>
-        <v>2.0000000000000001E-4</v>
+      <c r="K27" s="47">
+        <f t="shared" si="10"/>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="L27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.6194818967299134E-5</v>
       </c>
       <c r="M27" s="35">
-        <f t="shared" ref="M27:M32" si="14">K27-L27</f>
-        <v>1.6380518103270087E-4</v>
+        <f t="shared" ref="M27:M32" si="15">K27-L27</f>
+        <v>3.8051810327008692E-6</v>
       </c>
       <c r="N27" s="41">
-        <f t="shared" si="11"/>
-        <v>2.457077715490513E-3</v>
+        <f t="shared" si="12"/>
+        <v>5.7077715490513038E-5</v>
       </c>
       <c r="O27" s="41">
-        <f t="shared" si="12"/>
-        <v>6.1426942887262824E-4</v>
+        <f t="shared" si="13"/>
+        <v>1.4269428872628259E-5</v>
       </c>
       <c r="P27" s="39">
-        <f t="shared" si="13"/>
-        <v>7.6169409180205905E-4</v>
-      </c>
-      <c r="Q27" s="48"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="47"/>
+        <f t="shared" si="14"/>
+        <v>1.7694091802059041E-5</v>
+      </c>
+      <c r="Q27" s="46"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="45"/>
     </row>
     <row r="28" spans="3:20" ht="15" x14ac:dyDescent="0.25">
       <c r="I28">
-        <f t="shared" si="8"/>
-        <v>250</v>
+        <f t="shared" si="9"/>
+        <v>50</v>
       </c>
       <c r="J28" s="38">
         <f>G12</f>
         <v>41.480940563799237</v>
       </c>
-      <c r="K28" s="49">
-        <f t="shared" si="9"/>
-        <v>2.5000000000000001E-4</v>
+      <c r="K28" s="47">
+        <f t="shared" si="10"/>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.1480940563799239E-5</v>
       </c>
       <c r="M28" s="35">
+        <f t="shared" si="15"/>
+        <v>8.5190594362007639E-6</v>
+      </c>
+      <c r="N28" s="41">
+        <f t="shared" si="12"/>
+        <v>1.2778589154301145E-4</v>
+      </c>
+      <c r="O28" s="41">
+        <f t="shared" si="13"/>
+        <v>3.1946472885752863E-5</v>
+      </c>
+      <c r="P28" s="39">
         <f t="shared" si="14"/>
-        <v>2.0851905943620075E-4</v>
-      </c>
-      <c r="N28" s="41">
-        <f t="shared" si="11"/>
-        <v>3.1277858915430114E-3</v>
-      </c>
-      <c r="O28" s="41">
-        <f t="shared" si="12"/>
-        <v>7.8194647288575285E-4</v>
-      </c>
-      <c r="P28" s="39">
-        <f t="shared" si="13"/>
-        <v>9.6961362637833356E-4</v>
-      </c>
-      <c r="Q28" s="48"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="47"/>
+        <v>3.9613626378333548E-5</v>
+      </c>
+      <c r="Q28" s="46"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="45"/>
     </row>
     <row r="29" spans="3:20" ht="15" x14ac:dyDescent="0.25">
       <c r="I29">
-        <f t="shared" si="8"/>
-        <v>400</v>
+        <f t="shared" si="9"/>
+        <v>80</v>
       </c>
       <c r="J29" s="38">
         <f>G11</f>
         <v>60.167211373284822</v>
       </c>
-      <c r="K29" s="49">
-        <f t="shared" si="9"/>
-        <v>4.0000000000000002E-4</v>
+      <c r="K29" s="47">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="L29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.0167211373284823E-5</v>
       </c>
       <c r="M29" s="35">
+        <f t="shared" si="15"/>
+        <v>1.9832788626715183E-5</v>
+      </c>
+      <c r="N29" s="41">
+        <f t="shared" si="12"/>
+        <v>2.9749182940072777E-4</v>
+      </c>
+      <c r="O29" s="41">
+        <f t="shared" si="13"/>
+        <v>7.4372957350181943E-5</v>
+      </c>
+      <c r="P29" s="39">
         <f t="shared" si="14"/>
-        <v>3.3983278862671518E-4</v>
-      </c>
-      <c r="N29" s="41">
-        <f t="shared" si="11"/>
-        <v>5.0974918294007278E-3</v>
-      </c>
-      <c r="O29" s="41">
-        <f t="shared" si="12"/>
-        <v>1.2743729573501819E-3</v>
-      </c>
-      <c r="P29" s="39">
-        <f t="shared" si="13"/>
-        <v>1.5802224671142256E-3</v>
-      </c>
-      <c r="Q29" s="48"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="47"/>
+        <v>9.2222467114225608E-5</v>
+      </c>
+      <c r="Q29" s="46"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="45"/>
     </row>
     <row r="30" spans="3:20" ht="15" x14ac:dyDescent="0.25">
       <c r="I30">
-        <f t="shared" si="8"/>
-        <v>500</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
       <c r="J30" s="38">
         <f>G10</f>
         <v>71.346293602678344</v>
       </c>
-      <c r="K30" s="49">
-        <f t="shared" si="9"/>
-        <v>5.0000000000000001E-4</v>
+      <c r="K30" s="47">
+        <f t="shared" si="10"/>
+        <v>1E-4</v>
       </c>
       <c r="L30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.1346293602678347E-5</v>
       </c>
       <c r="M30" s="35">
+        <f t="shared" si="15"/>
+        <v>2.8653706397321657E-5</v>
+      </c>
+      <c r="N30" s="41">
+        <f t="shared" si="12"/>
+        <v>4.2980559595982485E-4</v>
+      </c>
+      <c r="O30" s="41">
+        <f t="shared" si="13"/>
+        <v>1.0745139898995621E-4</v>
+      </c>
+      <c r="P30" s="39">
         <f t="shared" si="14"/>
-        <v>4.2865370639732169E-4</v>
-      </c>
-      <c r="N30" s="41">
-        <f t="shared" si="11"/>
-        <v>6.4298055959598251E-3</v>
-      </c>
-      <c r="O30" s="41">
-        <f t="shared" si="12"/>
-        <v>1.6074513989899563E-3</v>
-      </c>
-      <c r="P30" s="39">
-        <f t="shared" si="13"/>
-        <v>1.9932397347475457E-3</v>
-      </c>
-      <c r="Q30" s="48"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="47"/>
+        <v>1.3323973474754571E-4</v>
+      </c>
+      <c r="Q30" s="46"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="45"/>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="I31">
-        <f t="shared" si="8"/>
-        <v>800</v>
+        <f t="shared" si="9"/>
+        <v>160</v>
       </c>
       <c r="J31" s="38">
         <f>G9</f>
         <v>104.77426374531142</v>
       </c>
-      <c r="K31" s="49">
-        <f t="shared" si="9"/>
-        <v>8.0000000000000004E-4</v>
+      <c r="K31" s="47">
+        <f t="shared" si="10"/>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="L31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0477426374531142E-4</v>
       </c>
       <c r="M31" s="35">
+        <f t="shared" si="15"/>
+        <v>5.5225736254688591E-5</v>
+      </c>
+      <c r="N31" s="41">
+        <f t="shared" si="12"/>
+        <v>8.2838604382032884E-4</v>
+      </c>
+      <c r="O31" s="41">
+        <f t="shared" si="13"/>
+        <v>2.0709651095508221E-4</v>
+      </c>
+      <c r="P31" s="39">
         <f t="shared" si="14"/>
-        <v>6.9522573625468856E-4</v>
-      </c>
-      <c r="N31" s="41">
-        <f t="shared" si="11"/>
-        <v>1.0428386043820329E-2</v>
-      </c>
-      <c r="O31" s="41">
-        <f t="shared" si="12"/>
-        <v>2.6070965109550822E-3</v>
-      </c>
-      <c r="P31" s="39">
-        <f t="shared" si="13"/>
-        <v>3.2327996735843018E-3</v>
-      </c>
-      <c r="Q31" s="48"/>
+        <v>2.5679967358430193E-4</v>
+      </c>
+      <c r="Q31" s="46"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="I32">
-        <f t="shared" si="8"/>
-        <v>1000</v>
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
       <c r="J32" s="38">
         <f>G8</f>
         <v>123.80283870916648</v>
       </c>
-      <c r="K32" s="49">
-        <f t="shared" si="9"/>
-        <v>1E-3</v>
+      <c r="K32" s="47">
+        <f t="shared" si="10"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="L32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2380283870916647E-4</v>
       </c>
       <c r="M32" s="35">
+        <f t="shared" si="15"/>
+        <v>7.6197161290833543E-5</v>
+      </c>
+      <c r="N32" s="41">
+        <f t="shared" si="12"/>
+        <v>1.1429574193625031E-3</v>
+      </c>
+      <c r="O32" s="41">
+        <f t="shared" si="13"/>
+        <v>2.8573935484062576E-4</v>
+      </c>
+      <c r="P32" s="39">
         <f t="shared" si="14"/>
-        <v>8.7619716129083355E-4</v>
-      </c>
-      <c r="N32" s="41">
-        <f t="shared" si="11"/>
-        <v>1.3142957419362503E-2</v>
-      </c>
-      <c r="O32" s="41">
-        <f t="shared" si="12"/>
-        <v>3.2857393548406258E-3</v>
-      </c>
-      <c r="P32" s="39">
-        <f t="shared" si="13"/>
-        <v>4.0743168000023757E-3</v>
-      </c>
-      <c r="Q32" s="48"/>
+        <v>3.5431680000237595E-4</v>
+      </c>
+      <c r="Q32" s="46"/>
     </row>
     <row r="36" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L36" s="36" t="str">
@@ -6864,98 +6868,104 @@
       </c>
     </row>
     <row r="37" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L37" s="44">
+      <c r="L37" s="58">
         <f>AVERAGE(L11, L25)</f>
         <v>0</v>
       </c>
-      <c r="M37" s="43">
+      <c r="M37" s="58">
         <f>AVERAGE(P11,P25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L38" s="44">
-        <f t="shared" ref="L38:L43" si="15">AVERAGE(L12, L26)</f>
+      <c r="L38" s="58">
+        <f t="shared" ref="L38:L43" si="16">AVERAGE(L12, L26)</f>
         <v>1.7430675601504233E-5</v>
       </c>
-      <c r="M38" s="43">
-        <f t="shared" ref="M38:M44" si="16">AVERAGE(P12,P26)</f>
-        <v>3.8394735845300533E-4</v>
-      </c>
-      <c r="O38" s="45"/>
+      <c r="M38" s="58">
+        <f t="shared" ref="M38:M44" si="17">AVERAGE(P12,P26)</f>
+        <v>1.1947358453005335E-5</v>
+      </c>
+      <c r="O38" s="43"/>
       <c r="P38" s="42"/>
     </row>
     <row r="39" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L39" s="44">
-        <f t="shared" si="15"/>
+      <c r="L39" s="58">
+        <f t="shared" si="16"/>
         <v>2.9422279018570391E-5</v>
       </c>
-      <c r="M39" s="43">
+      <c r="M39" s="58">
+        <f t="shared" si="17"/>
+        <v>4.9186402563647686E-5</v>
+      </c>
+      <c r="O39" s="43"/>
+      <c r="P39" s="42"/>
+    </row>
+    <row r="40" spans="12:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="L40" s="58">
         <f t="shared" si="16"/>
-        <v>7.9318640256364776E-4</v>
-      </c>
-      <c r="O39" s="45"/>
-      <c r="P39" s="42"/>
-    </row>
-    <row r="40" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L40" s="44">
-        <f t="shared" si="15"/>
         <v>4.1180078240095143E-5</v>
       </c>
-      <c r="M40" s="43">
+      <c r="M40" s="58">
+        <f t="shared" si="17"/>
+        <v>4.1012636183557596E-5</v>
+      </c>
+      <c r="O40" s="43"/>
+      <c r="P40" s="42"/>
+    </row>
+    <row r="41" spans="12:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="L41" s="58">
         <f t="shared" si="16"/>
-        <v>9.710126361835576E-4</v>
-      </c>
-      <c r="O40" s="45"/>
-      <c r="P40" s="42"/>
-    </row>
-    <row r="41" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L41" s="44">
-        <f t="shared" si="15"/>
         <v>5.3731904124597636E-5</v>
       </c>
-      <c r="M41" s="43">
+      <c r="M41" s="58">
+        <f t="shared" si="17"/>
+        <v>1.22146645820621E-4</v>
+      </c>
+      <c r="O41" s="43"/>
+      <c r="P41" s="42"/>
+    </row>
+    <row r="42" spans="12:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="L42" s="58">
         <f t="shared" si="16"/>
-        <v>1.610146645820621E-3</v>
-      </c>
-      <c r="O41" s="45"/>
-      <c r="P41" s="42"/>
-    </row>
-    <row r="42" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L42" s="44">
-        <f t="shared" si="15"/>
         <v>6.8912499417929179E-5</v>
       </c>
-      <c r="M42" s="43">
+      <c r="M42" s="58">
+        <f t="shared" si="17"/>
+        <v>1.4455687770662933E-4</v>
+      </c>
+      <c r="O42" s="43"/>
+      <c r="P42" s="42"/>
+    </row>
+    <row r="43" spans="12:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="L43" s="58">
         <f t="shared" si="16"/>
-        <v>2.0045568777066294E-3</v>
-      </c>
-      <c r="O42" s="45"/>
-      <c r="P42" s="42"/>
-    </row>
-    <row r="43" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L43" s="44">
-        <f t="shared" si="15"/>
         <v>9.562706817702621E-5</v>
       </c>
-      <c r="M43" s="43">
-        <f t="shared" si="16"/>
-        <v>3.2753341329768279E-3</v>
-      </c>
-      <c r="O43" s="45"/>
+      <c r="M43" s="58">
+        <f t="shared" si="17"/>
+        <v>2.9933413297682817E-4</v>
+      </c>
+      <c r="O43" s="43"/>
       <c r="P43" s="42"/>
     </row>
     <row r="44" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L44" s="44">
+      <c r="L44" s="58">
         <f>AVERAGE(L18, L32)</f>
         <v>1.3429413607128098E-4</v>
       </c>
-      <c r="M44" s="43">
-        <f t="shared" si="16"/>
-        <v>4.0255322672685442E-3</v>
-      </c>
-      <c r="O44" s="45"/>
+      <c r="M44" s="58">
+        <f t="shared" si="17"/>
+        <v>3.0553226726854352E-4</v>
+      </c>
+      <c r="O44" s="43"/>
       <c r="P44" s="42"/>
+    </row>
+    <row r="48" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <f>M43/L43</f>
+        <v>3.130223886219083</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/case3_Borate/Excel_Files/purolite pcr642Ca Adsorption data.xlsx
+++ b/case3_Borate/Excel_Files/purolite pcr642Ca Adsorption data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1979230255d33e2/Desktop/MEng/MEng_Code/case3_Borate/Excel_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B12FAC-FB76-4C74-A142-A9B4A3AA3C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{27B12FAC-FB76-4C74-A142-A9B4A3AA3C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E1ADFE9-8BEC-425D-A15F-C0A7CD925CD7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1152" yWindow="1092" windowWidth="21624" windowHeight="11244" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conc. in Calib Units" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="192">
   <si>
     <t>TT1210 Sample 91</t>
   </si>
@@ -619,23 +619,39 @@
   </si>
   <si>
     <t>Qe (g_solute/mL_resin)</t>
+  </si>
+  <si>
+    <t>Boron, MW (g/mol)</t>
+  </si>
+  <si>
+    <t>Boric Acid MW (g/mol)</t>
+  </si>
+  <si>
+    <t>fraction boron per wt boric acid</t>
+  </si>
+  <si>
+    <t>Co, Boron  (ppm)</t>
+  </si>
+  <si>
+    <t>Co, Boric Acid  (ppm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000E+00"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="174" formatCode="0.00000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="171" formatCode="0.00000000000"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -695,8 +711,19 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -766,6 +793,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,7 +1100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1146,10 +1179,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1157,6 +1189,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1184,7 +1217,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1488,25 +1531,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1947358453005335E-5</c:v>
+                  <c:v>2.4527208716350581E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9186402563647686E-5</c:v>
+                  <c:v>2.5782229831964032E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1012636183557596E-5</c:v>
+                  <c:v>1.1757420268953013E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.22146645820621E-4</c:v>
+                  <c:v>7.5338300357253693E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4455687770662933E-4</c:v>
+                  <c:v>8.6046445877420186E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9933413297682817E-4</c:v>
+                  <c:v>2.0571744205009359E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0553226726854352E-4</c:v>
+                  <c:v>1.8851140361012518E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5870,12 +5913,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6828CF-0838-4573-8335-33E9026E31D7}">
   <dimension ref="A2:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.109375" customWidth="1"/>
     <col min="6" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -5965,8 +6011,11 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
       <c r="B7" s="23" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>153</v>
@@ -5999,8 +6048,8 @@
         <v>1000</v>
       </c>
       <c r="B8" s="24">
-        <f>A8*0.2</f>
-        <v>200</v>
+        <f>A8*$C$28</f>
+        <v>174.83422286915737</v>
       </c>
       <c r="C8" s="10">
         <v>2.8957086686679099</v>
@@ -6036,8 +6085,8 @@
         <v>800</v>
       </c>
       <c r="B9" s="24">
-        <f t="shared" ref="B9:B15" si="0">A9*0.2</f>
-        <v>160</v>
+        <f t="shared" ref="B9:B15" si="0">A9*$C$28</f>
+        <v>139.86737829532589</v>
       </c>
       <c r="C9" s="11">
         <v>1.7295974521748201</v>
@@ -6067,7 +6116,7 @@
       </c>
       <c r="B10" s="24">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>87.417111434578686</v>
       </c>
       <c r="C10" s="12">
         <v>1.3295741046636</v>
@@ -6084,13 +6133,13 @@
         <f t="shared" si="2"/>
         <v>71.346293602678344</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="46" t="s">
         <v>181</v>
       </c>
       <c r="L10" t="s">
@@ -6116,7 +6165,7 @@
       </c>
       <c r="B11" s="24">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>69.933689147662946</v>
       </c>
       <c r="C11" s="11">
         <v>0.94593193751820903</v>
@@ -6133,15 +6182,15 @@
         <f t="shared" si="2"/>
         <v>60.167211373284822</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="61">
         <f>B15</f>
         <v>0</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="60">
         <f>E15</f>
         <v>0</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="47">
         <f>I11/1000000</f>
         <v>0</v>
       </c>
@@ -6153,7 +6202,7 @@
         <f>K11-L11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="40">
+      <c r="N11" s="39">
         <f>M11*$G$4</f>
         <v>0</v>
       </c>
@@ -6161,11 +6210,11 @@
         <f>N11/$G$3</f>
         <v>0</v>
       </c>
-      <c r="P11" s="42">
+      <c r="P11" s="39">
         <f>O11*$M$7</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="42"/>
+      <c r="Q11" s="41"/>
     </row>
     <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
@@ -6173,7 +6222,7 @@
       </c>
       <c r="B12" s="24">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>43.708555717289343</v>
       </c>
       <c r="C12" s="12">
         <v>0.81758431832782097</v>
@@ -6190,17 +6239,17 @@
         <f t="shared" si="2"/>
         <v>41.480940563799237</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="61">
         <f>B14</f>
-        <v>20</v>
-      </c>
-      <c r="J12" s="38">
+        <v>17.483422286915737</v>
+      </c>
+      <c r="J12" s="60">
         <f>E14</f>
         <v>16.569231312517449</v>
       </c>
-      <c r="K12" s="48">
+      <c r="K12" s="47">
         <f t="shared" ref="K12:K18" si="3">I12/1000000</f>
-        <v>2.0000000000000002E-5</v>
+        <v>1.7483422286915737E-5</v>
       </c>
       <c r="L12">
         <f t="shared" ref="L12:L18" si="4">J12/1000000</f>
@@ -6208,21 +6257,21 @@
       </c>
       <c r="M12" s="34">
         <f t="shared" ref="M12:M18" si="5">K12-L12</f>
-        <v>3.430768687482552E-6</v>
-      </c>
-      <c r="N12" s="40">
+        <v>9.1419097439828775E-7</v>
+      </c>
+      <c r="N12" s="39">
         <f t="shared" ref="N12:N18" si="6">M12*$G$4</f>
-        <v>5.1461530312238283E-5</v>
+        <v>1.3712864615974316E-5</v>
       </c>
       <c r="O12" s="37">
         <f t="shared" ref="O12:O18" si="7">N12/$G$3</f>
-        <v>1.2865382578059571E-5</v>
-      </c>
-      <c r="P12" s="42">
+        <v>3.4282161539935791E-6</v>
+      </c>
+      <c r="P12" s="39">
         <f>O12*$M$7</f>
-        <v>1.5953074396793869E-5</v>
-      </c>
-      <c r="Q12" s="42"/>
+        <v>4.2509880309520384E-6</v>
+      </c>
+      <c r="Q12" s="41"/>
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
@@ -6230,7 +6279,7 @@
       </c>
       <c r="B13" s="24">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>34.966844573831473</v>
       </c>
       <c r="C13" s="11">
         <v>0.45299478139683302</v>
@@ -6247,39 +6296,39 @@
         <f t="shared" si="2"/>
         <v>36.194818967299135</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="61">
         <f>B13</f>
-        <v>40</v>
-      </c>
-      <c r="J13" s="38">
+        <v>34.966844573831473</v>
+      </c>
+      <c r="J13" s="60">
         <f>E13</f>
         <v>22.649739069841651</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="47">
         <f t="shared" si="3"/>
-        <v>4.0000000000000003E-5</v>
+        <v>3.4966844573831475E-5</v>
       </c>
       <c r="L13">
         <f t="shared" si="4"/>
         <v>2.2649739069841652E-5</v>
       </c>
-      <c r="M13" s="44">
+      <c r="M13" s="43">
         <f>K13-L13</f>
-        <v>1.7350260930158351E-5</v>
-      </c>
-      <c r="N13" s="40">
+        <v>1.2317105503989823E-5</v>
+      </c>
+      <c r="N13" s="39">
         <f>M13*$G$4</f>
-        <v>2.6025391395237526E-4</v>
+        <v>1.8475658255984734E-4</v>
       </c>
       <c r="O13" s="37">
         <f t="shared" si="7"/>
-        <v>6.5063478488093816E-5</v>
-      </c>
-      <c r="P13" s="42">
+        <v>4.6189145639961836E-5</v>
+      </c>
+      <c r="P13" s="39">
         <f t="shared" ref="P13:P18" si="8">O13*$M$7</f>
-        <v>8.0678713325236338E-5</v>
-      </c>
-      <c r="Q13" s="42"/>
+        <v>5.7274540593552678E-5</v>
+      </c>
+      <c r="Q13" s="41"/>
     </row>
     <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
@@ -6287,7 +6336,7 @@
       </c>
       <c r="B14" s="24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>17.483422286915737</v>
       </c>
       <c r="C14" s="12">
         <v>0.33138462625034898</v>
@@ -6304,17 +6353,17 @@
         <f t="shared" si="2"/>
         <v>18.292119890491012</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="61">
         <f>B12</f>
-        <v>50</v>
-      </c>
-      <c r="J14" s="38">
+        <v>43.708555717289343</v>
+      </c>
+      <c r="J14" s="60">
         <f>E12</f>
         <v>40.879215916391047</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="47">
         <f t="shared" si="3"/>
-        <v>5.0000000000000002E-5</v>
+        <v>4.370855571728934E-5</v>
       </c>
       <c r="L14">
         <f t="shared" si="4"/>
@@ -6322,21 +6371,21 @@
       </c>
       <c r="M14" s="34">
         <f t="shared" si="5"/>
-        <v>9.120784083608954E-6</v>
-      </c>
-      <c r="N14" s="40">
+        <v>2.8293398008982917E-6</v>
+      </c>
+      <c r="N14" s="39">
         <f t="shared" si="6"/>
-        <v>1.368117612541343E-4</v>
+        <v>4.2440097013474375E-5</v>
       </c>
       <c r="O14" s="37">
         <f t="shared" si="7"/>
-        <v>3.4202940313533576E-5</v>
-      </c>
-      <c r="P14" s="42">
+        <v>1.0610024253368594E-5</v>
+      </c>
+      <c r="P14" s="39">
         <f t="shared" si="8"/>
-        <v>4.2411645988781636E-5</v>
-      </c>
-      <c r="Q14" s="42"/>
+        <v>1.3156430074177056E-5</v>
+      </c>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
@@ -6361,52 +6410,52 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="62">
         <f>B11</f>
-        <v>80</v>
-      </c>
-      <c r="J15" s="38">
+        <v>69.933689147662946</v>
+      </c>
+      <c r="J15" s="63">
         <f>E11</f>
         <v>47.296596875910453</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="64">
         <f t="shared" si="3"/>
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="L15">
+        <v>6.993368914766295E-5</v>
+      </c>
+      <c r="L15" s="65">
         <f t="shared" si="4"/>
         <v>4.7296596875910455E-5</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="66">
         <f t="shared" si="5"/>
-        <v>3.2703403124089552E-5</v>
-      </c>
-      <c r="N15" s="40">
+        <v>2.2637092271752495E-5</v>
+      </c>
+      <c r="N15" s="67">
         <f t="shared" si="6"/>
-        <v>4.9055104686134324E-4</v>
-      </c>
-      <c r="O15" s="37">
+        <v>3.395563840762874E-4</v>
+      </c>
+      <c r="O15" s="68">
         <f t="shared" si="7"/>
-        <v>1.2263776171533581E-4</v>
-      </c>
-      <c r="P15" s="42">
+        <v>8.4889096019071851E-5</v>
+      </c>
+      <c r="P15" s="67">
         <f t="shared" si="8"/>
-        <v>1.5207082452701641E-4</v>
-      </c>
-      <c r="Q15" s="42"/>
+        <v>1.052624790636491E-4</v>
+      </c>
+      <c r="Q15" s="41"/>
     </row>
     <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="I16" s="31">
+      <c r="I16" s="61">
         <f>B10</f>
-        <v>100</v>
-      </c>
-      <c r="J16" s="38">
+        <v>87.417111434578686</v>
+      </c>
+      <c r="J16" s="60">
         <f>E10</f>
         <v>66.478705233180008</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="47">
         <f t="shared" si="3"/>
-        <v>1E-4</v>
+        <v>8.741711143457868E-5</v>
       </c>
       <c r="L16">
         <f t="shared" si="4"/>
@@ -6414,34 +6463,34 @@
       </c>
       <c r="M16" s="34">
         <f t="shared" si="5"/>
-        <v>3.3521294766819995E-5</v>
-      </c>
-      <c r="N16" s="40">
+        <v>2.0938406201398671E-5</v>
+      </c>
+      <c r="N16" s="39">
         <f t="shared" si="6"/>
-        <v>5.0281942150229991E-4</v>
+        <v>3.1407609302098007E-4</v>
       </c>
       <c r="O16" s="37">
         <f t="shared" si="7"/>
-        <v>1.2570485537557498E-4</v>
-      </c>
-      <c r="P16" s="42">
+        <v>7.8519023255245018E-5</v>
+      </c>
+      <c r="P16" s="39">
         <f t="shared" si="8"/>
-        <v>1.5587402066571298E-4</v>
-      </c>
-      <c r="Q16" s="42"/>
-    </row>
-    <row r="17" spans="3:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="31">
+        <v>9.7363588836503817E-5</v>
+      </c>
+      <c r="Q16" s="41"/>
+    </row>
+    <row r="17" spans="2:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="61">
         <f>B9</f>
-        <v>160</v>
-      </c>
-      <c r="J17" s="38">
+        <v>139.86737829532589</v>
+      </c>
+      <c r="J17" s="60">
         <f>E9</f>
         <v>86.479872608741005</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="47">
         <f t="shared" si="3"/>
-        <v>1.6000000000000001E-4</v>
+        <v>1.398673782953259E-4</v>
       </c>
       <c r="L17">
         <f t="shared" si="4"/>
@@ -6449,23 +6498,23 @@
       </c>
       <c r="M17" s="34">
         <f t="shared" si="5"/>
-        <v>7.3520127391259014E-5</v>
-      </c>
-      <c r="N17" s="40">
+        <v>5.3387505686584901E-5</v>
+      </c>
+      <c r="N17" s="39">
         <f t="shared" si="6"/>
-        <v>1.1028019108688851E-3</v>
+        <v>8.0081258529877356E-4</v>
       </c>
       <c r="O17" s="37">
         <f t="shared" si="7"/>
-        <v>2.7570047771722128E-4</v>
-      </c>
-      <c r="P17" s="42">
+        <v>2.0020314632469339E-4</v>
+      </c>
+      <c r="P17" s="39">
         <f t="shared" si="8"/>
-        <v>3.4186859236935442E-4</v>
-      </c>
-      <c r="Q17" s="42"/>
-    </row>
-    <row r="18" spans="3:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.4825190144261983E-4</v>
+      </c>
+      <c r="Q17" s="41"/>
+    </row>
+    <row r="18" spans="2:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="7" t="s">
         <v>153</v>
       </c>
@@ -6473,17 +6522,17 @@
         <v>162</v>
       </c>
       <c r="E18" s="52"/>
-      <c r="I18">
+      <c r="I18" s="60">
         <f>B8</f>
-        <v>200</v>
-      </c>
-      <c r="J18" s="38">
+        <v>174.83422286915737</v>
+      </c>
+      <c r="J18" s="60">
         <f>E8</f>
         <v>144.7854334333955</v>
       </c>
-      <c r="K18" s="48">
+      <c r="K18" s="47">
         <f t="shared" si="3"/>
-        <v>2.0000000000000001E-4</v>
+        <v>1.7483422286915736E-4</v>
       </c>
       <c r="L18">
         <f t="shared" si="4"/>
@@ -6491,23 +6540,23 @@
       </c>
       <c r="M18" s="34">
         <f t="shared" si="5"/>
-        <v>5.5214566566604521E-5</v>
-      </c>
-      <c r="N18" s="40">
+        <v>3.0048789435761872E-5</v>
+      </c>
+      <c r="N18" s="39">
         <f t="shared" si="6"/>
-        <v>8.2821849849906779E-4</v>
+        <v>4.5073184153642811E-4</v>
       </c>
       <c r="O18" s="37">
         <f t="shared" si="7"/>
-        <v>2.0705462462476695E-4</v>
-      </c>
-      <c r="P18" s="42">
+        <v>1.1268296038410703E-4</v>
+      </c>
+      <c r="P18" s="39">
         <f t="shared" si="8"/>
-        <v>2.5674773453471104E-4</v>
-      </c>
-      <c r="Q18" s="42"/>
-    </row>
-    <row r="19" spans="3:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.3972687087629272E-4</v>
+      </c>
+      <c r="Q18" s="41"/>
+    </row>
+    <row r="19" spans="2:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="7" t="s">
         <v>154</v>
       </c>
@@ -6516,33 +6565,33 @@
       </c>
       <c r="E19" s="52"/>
     </row>
-    <row r="20" spans="3:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="29"/>
       <c r="E21" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="3:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="28"/>
       <c r="E22" s="18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="3:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="30"/>
       <c r="E23" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="3:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="I24" s="31" t="s">
+    <row r="24" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="I24" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="K24" s="47" t="s">
+      <c r="K24" s="46" t="s">
         <v>181</v>
       </c>
       <c r="L24" t="s">
@@ -6562,19 +6611,19 @@
         <v>186</v>
       </c>
       <c r="Q24" s="31"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="45"/>
-    </row>
-    <row r="25" spans="3:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="I25">
+      <c r="S24" s="42"/>
+      <c r="T24" s="44"/>
+    </row>
+    <row r="25" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="I25" s="60">
         <f>I11</f>
         <v>0</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="60">
         <f>G15</f>
         <v>0</v>
       </c>
-      <c r="K25" s="47">
+      <c r="K25" s="46">
         <f>I25/1000000</f>
         <v>0</v>
       </c>
@@ -6586,34 +6635,40 @@
         <f>K25-L25</f>
         <v>0</v>
       </c>
-      <c r="N25" s="41">
+      <c r="N25" s="40">
         <f>M25*$G$4</f>
         <v>0</v>
       </c>
-      <c r="O25" s="41">
+      <c r="O25" s="40">
         <f>N25/$G$3</f>
         <v>0</v>
       </c>
-      <c r="P25" s="39">
+      <c r="P25" s="38">
         <f>O25*$M$7</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="46"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="45"/>
-    </row>
-    <row r="26" spans="3:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="I26">
+      <c r="Q25" s="45"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="44"/>
+    </row>
+    <row r="26" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="31">
+        <v>10.81</v>
+      </c>
+      <c r="I26" s="60">
         <f t="shared" ref="I26:I32" si="9">I12</f>
-        <v>20</v>
-      </c>
-      <c r="J26" s="38">
+        <v>17.483422286915737</v>
+      </c>
+      <c r="J26" s="60">
         <f>G14</f>
         <v>18.292119890491012</v>
       </c>
-      <c r="K26" s="47">
+      <c r="K26" s="46">
         <f t="shared" ref="K26:K32" si="10">I26/1000000</f>
-        <v>2.0000000000000002E-5</v>
+        <v>1.7483422286915737E-5</v>
       </c>
       <c r="L26">
         <f t="shared" ref="L26:L32" si="11">J26/1000000</f>
@@ -6621,73 +6676,86 @@
       </c>
       <c r="M26" s="35">
         <f>K26-L26</f>
-        <v>1.7078801095089897E-6</v>
-      </c>
-      <c r="N26" s="41">
+        <v>-8.0869760357527457E-7</v>
+      </c>
+      <c r="N26" s="40">
         <f t="shared" ref="N26:N32" si="12">M26*$G$4</f>
-        <v>2.5618201642634845E-5</v>
-      </c>
-      <c r="O26" s="41">
+        <v>-1.2130464053629119E-5</v>
+      </c>
+      <c r="O26" s="40">
         <f t="shared" ref="O26:O32" si="13">N26/$G$3</f>
-        <v>6.4045504106587112E-6</v>
-      </c>
-      <c r="P26" s="39">
+        <v>-3.0326160134072796E-6</v>
+      </c>
+      <c r="P26" s="38">
         <f t="shared" ref="P26:P32" si="14">O26*$M$7</f>
-        <v>7.9416425092168026E-6</v>
-      </c>
-      <c r="Q26" s="46"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="45"/>
-    </row>
-    <row r="27" spans="3:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="I27">
+        <v>-3.7604438566250268E-6</v>
+      </c>
+      <c r="Q26" s="45"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="44"/>
+    </row>
+    <row r="27" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="31">
+        <v>61.83</v>
+      </c>
+      <c r="I27" s="60">
         <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="J27" s="38">
+        <v>34.966844573831473</v>
+      </c>
+      <c r="J27" s="60">
         <f>G13</f>
         <v>36.194818967299135</v>
       </c>
-      <c r="K27" s="47">
+      <c r="K27" s="46">
         <f t="shared" si="10"/>
-        <v>4.0000000000000003E-5</v>
+        <v>3.4966844573831475E-5</v>
       </c>
       <c r="L27">
-        <f t="shared" si="11"/>
+        <f>J27/1000000</f>
         <v>3.6194818967299134E-5</v>
       </c>
       <c r="M27" s="35">
         <f t="shared" ref="M27:M32" si="15">K27-L27</f>
-        <v>3.8051810327008692E-6</v>
-      </c>
-      <c r="N27" s="41">
+        <v>-1.2279743934676593E-6</v>
+      </c>
+      <c r="N27" s="40">
         <f t="shared" si="12"/>
-        <v>5.7077715490513038E-5</v>
-      </c>
-      <c r="O27" s="41">
+        <v>-1.8419615902014889E-5</v>
+      </c>
+      <c r="O27" s="40">
         <f t="shared" si="13"/>
-        <v>1.4269428872628259E-5</v>
-      </c>
-      <c r="P27" s="39">
+        <v>-4.6049039755037223E-6</v>
+      </c>
+      <c r="P27" s="38">
         <f t="shared" si="14"/>
-        <v>1.7694091802059041E-5</v>
-      </c>
-      <c r="Q27" s="46"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="45"/>
-    </row>
-    <row r="28" spans="3:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="I28">
+        <v>-5.710080929624616E-6</v>
+      </c>
+      <c r="Q27" s="45"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="44"/>
+    </row>
+    <row r="28" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="31">
+        <f>C26/C27</f>
+        <v>0.17483422286915737</v>
+      </c>
+      <c r="I28" s="60">
         <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-      <c r="J28" s="38">
+        <v>43.708555717289343</v>
+      </c>
+      <c r="J28" s="60">
         <f>G12</f>
         <v>41.480940563799237</v>
       </c>
-      <c r="K28" s="47">
+      <c r="K28" s="46">
         <f t="shared" si="10"/>
-        <v>5.0000000000000002E-5</v>
+        <v>4.370855571728934E-5</v>
       </c>
       <c r="L28">
         <f t="shared" si="11"/>
@@ -6695,36 +6763,36 @@
       </c>
       <c r="M28" s="35">
         <f t="shared" si="15"/>
-        <v>8.5190594362007639E-6</v>
-      </c>
-      <c r="N28" s="41">
+        <v>2.2276151534901016E-6</v>
+      </c>
+      <c r="N28" s="40">
         <f t="shared" si="12"/>
-        <v>1.2778589154301145E-4</v>
-      </c>
-      <c r="O28" s="41">
+        <v>3.3414227302351524E-5</v>
+      </c>
+      <c r="O28" s="40">
         <f t="shared" si="13"/>
-        <v>3.1946472885752863E-5</v>
-      </c>
-      <c r="P28" s="39">
+        <v>8.353556825587881E-6</v>
+      </c>
+      <c r="P28" s="38">
         <f t="shared" si="14"/>
-        <v>3.9613626378333548E-5</v>
-      </c>
-      <c r="Q28" s="46"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="45"/>
-    </row>
-    <row r="29" spans="3:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="I29">
+        <v>1.0358410463728973E-5</v>
+      </c>
+      <c r="Q28" s="45"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="44"/>
+    </row>
+    <row r="29" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="I29" s="60">
         <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="J29" s="38">
+        <v>69.933689147662946</v>
+      </c>
+      <c r="J29" s="60">
         <f>G11</f>
         <v>60.167211373284822</v>
       </c>
-      <c r="K29" s="47">
+      <c r="K29" s="46">
         <f t="shared" si="10"/>
-        <v>8.0000000000000007E-5</v>
+        <v>6.993368914766295E-5</v>
       </c>
       <c r="L29">
         <f t="shared" si="11"/>
@@ -6732,36 +6800,36 @@
       </c>
       <c r="M29" s="35">
         <f t="shared" si="15"/>
-        <v>1.9832788626715183E-5</v>
-      </c>
-      <c r="N29" s="41">
+        <v>9.7664777743781262E-6</v>
+      </c>
+      <c r="N29" s="40">
         <f t="shared" si="12"/>
-        <v>2.9749182940072777E-4</v>
-      </c>
-      <c r="O29" s="41">
+        <v>1.4649716661567188E-4</v>
+      </c>
+      <c r="O29" s="40">
         <f t="shared" si="13"/>
-        <v>7.4372957350181943E-5</v>
-      </c>
-      <c r="P29" s="39">
+        <v>3.662429165391797E-5</v>
+      </c>
+      <c r="P29" s="38">
         <f t="shared" si="14"/>
-        <v>9.2222467114225608E-5</v>
-      </c>
-      <c r="Q29" s="46"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="45"/>
-    </row>
-    <row r="30" spans="3:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="I30">
+        <v>4.5414121650858281E-5</v>
+      </c>
+      <c r="Q29" s="45"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="44"/>
+    </row>
+    <row r="30" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="I30" s="60">
         <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="J30" s="38">
+        <v>87.417111434578686</v>
+      </c>
+      <c r="J30" s="60">
         <f>G10</f>
         <v>71.346293602678344</v>
       </c>
-      <c r="K30" s="47">
+      <c r="K30" s="46">
         <f t="shared" si="10"/>
-        <v>1E-4</v>
+        <v>8.741711143457868E-5</v>
       </c>
       <c r="L30">
         <f t="shared" si="11"/>
@@ -6769,36 +6837,36 @@
       </c>
       <c r="M30" s="35">
         <f t="shared" si="15"/>
-        <v>2.8653706397321657E-5</v>
-      </c>
-      <c r="N30" s="41">
+        <v>1.6070817831900333E-5</v>
+      </c>
+      <c r="N30" s="40">
         <f t="shared" si="12"/>
-        <v>4.2980559595982485E-4</v>
-      </c>
-      <c r="O30" s="41">
+        <v>2.4106226747850501E-4</v>
+      </c>
+      <c r="O30" s="40">
         <f t="shared" si="13"/>
-        <v>1.0745139898995621E-4</v>
-      </c>
-      <c r="P30" s="39">
+        <v>6.0265566869626252E-5</v>
+      </c>
+      <c r="P30" s="38">
         <f t="shared" si="14"/>
-        <v>1.3323973474754571E-4</v>
-      </c>
-      <c r="Q30" s="46"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="45"/>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="I31">
+        <v>7.4729302918336555E-5</v>
+      </c>
+      <c r="Q30" s="45"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="44"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I31" s="60">
         <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="J31" s="38">
+        <v>139.86737829532589</v>
+      </c>
+      <c r="J31" s="60">
         <f>G9</f>
         <v>104.77426374531142</v>
       </c>
-      <c r="K31" s="47">
+      <c r="K31" s="46">
         <f t="shared" si="10"/>
-        <v>1.6000000000000001E-4</v>
+        <v>1.398673782953259E-4</v>
       </c>
       <c r="L31">
         <f t="shared" si="11"/>
@@ -6806,34 +6874,34 @@
       </c>
       <c r="M31" s="35">
         <f t="shared" si="15"/>
-        <v>5.5225736254688591E-5</v>
-      </c>
-      <c r="N31" s="41">
+        <v>3.5093114550014477E-5</v>
+      </c>
+      <c r="N31" s="40">
         <f t="shared" si="12"/>
-        <v>8.2838604382032884E-4</v>
-      </c>
-      <c r="O31" s="41">
+        <v>5.2639671825021716E-4</v>
+      </c>
+      <c r="O31" s="40">
         <f t="shared" si="13"/>
-        <v>2.0709651095508221E-4</v>
-      </c>
-      <c r="P31" s="39">
+        <v>1.3159917956255429E-4</v>
+      </c>
+      <c r="P31" s="38">
         <f t="shared" si="14"/>
-        <v>2.5679967358430193E-4</v>
-      </c>
-      <c r="Q31" s="46"/>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="I32">
+        <v>1.6318298265756732E-4</v>
+      </c>
+      <c r="Q31" s="45"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I32" s="60">
         <f t="shared" si="9"/>
-        <v>200</v>
-      </c>
-      <c r="J32" s="38">
+        <v>174.83422286915737</v>
+      </c>
+      <c r="J32" s="60">
         <f>G8</f>
         <v>123.80283870916648</v>
       </c>
-      <c r="K32" s="47">
+      <c r="K32" s="46">
         <f t="shared" si="10"/>
-        <v>2.0000000000000001E-4</v>
+        <v>1.7483422286915736E-4</v>
       </c>
       <c r="L32">
         <f t="shared" si="11"/>
@@ -6841,21 +6909,21 @@
       </c>
       <c r="M32" s="35">
         <f t="shared" si="15"/>
-        <v>7.6197161290833543E-5</v>
-      </c>
-      <c r="N32" s="41">
+        <v>5.1031384159990894E-5</v>
+      </c>
+      <c r="N32" s="40">
         <f t="shared" si="12"/>
-        <v>1.1429574193625031E-3</v>
-      </c>
-      <c r="O32" s="41">
+        <v>7.6547076239986338E-4</v>
+      </c>
+      <c r="O32" s="40">
         <f t="shared" si="13"/>
-        <v>2.8573935484062576E-4</v>
-      </c>
-      <c r="P32" s="39">
+        <v>1.9136769059996584E-4</v>
+      </c>
+      <c r="P32" s="38">
         <f t="shared" si="14"/>
-        <v>3.5431680000237595E-4</v>
-      </c>
-      <c r="Q32" s="46"/>
+        <v>2.3729593634395763E-4</v>
+      </c>
+      <c r="Q32" s="45"/>
     </row>
     <row r="36" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L36" s="36" t="str">
@@ -6868,103 +6936,103 @@
       </c>
     </row>
     <row r="37" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L37" s="58">
+      <c r="L37" s="48">
         <f>AVERAGE(L11, L25)</f>
         <v>0</v>
       </c>
-      <c r="M37" s="58">
+      <c r="M37" s="48">
         <f>AVERAGE(P11,P25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L38" s="58">
+      <c r="L38" s="48">
         <f t="shared" ref="L38:L43" si="16">AVERAGE(L12, L26)</f>
         <v>1.7430675601504233E-5</v>
       </c>
-      <c r="M38" s="58">
+      <c r="M38" s="48">
         <f t="shared" ref="M38:M44" si="17">AVERAGE(P12,P26)</f>
-        <v>1.1947358453005335E-5</v>
-      </c>
-      <c r="O38" s="43"/>
-      <c r="P38" s="42"/>
+        <v>2.4527208716350581E-7</v>
+      </c>
+      <c r="O38" s="42"/>
+      <c r="P38" s="41"/>
     </row>
     <row r="39" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L39" s="58">
+      <c r="L39" s="48">
         <f t="shared" si="16"/>
         <v>2.9422279018570391E-5</v>
       </c>
-      <c r="M39" s="58">
-        <f t="shared" si="17"/>
-        <v>4.9186402563647686E-5</v>
-      </c>
-      <c r="O39" s="43"/>
-      <c r="P39" s="42"/>
+      <c r="M39" s="48">
+        <f>AVERAGE(P13,P27)</f>
+        <v>2.5782229831964032E-5</v>
+      </c>
+      <c r="O39" s="42"/>
+      <c r="P39" s="41"/>
     </row>
     <row r="40" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L40" s="58">
+      <c r="L40" s="48">
         <f t="shared" si="16"/>
         <v>4.1180078240095143E-5</v>
       </c>
-      <c r="M40" s="58">
+      <c r="M40" s="48">
         <f t="shared" si="17"/>
-        <v>4.1012636183557596E-5</v>
-      </c>
-      <c r="O40" s="43"/>
-      <c r="P40" s="42"/>
+        <v>1.1757420268953013E-5</v>
+      </c>
+      <c r="O40" s="42"/>
+      <c r="P40" s="41"/>
     </row>
     <row r="41" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L41" s="58">
+      <c r="L41" s="48">
         <f t="shared" si="16"/>
         <v>5.3731904124597636E-5</v>
       </c>
-      <c r="M41" s="58">
+      <c r="M41" s="48">
         <f t="shared" si="17"/>
-        <v>1.22146645820621E-4</v>
-      </c>
-      <c r="O41" s="43"/>
-      <c r="P41" s="42"/>
+        <v>7.5338300357253693E-5</v>
+      </c>
+      <c r="O41" s="42"/>
+      <c r="P41" s="41"/>
     </row>
     <row r="42" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L42" s="58">
+      <c r="L42" s="48">
         <f t="shared" si="16"/>
         <v>6.8912499417929179E-5</v>
       </c>
-      <c r="M42" s="58">
+      <c r="M42" s="48">
         <f t="shared" si="17"/>
-        <v>1.4455687770662933E-4</v>
-      </c>
-      <c r="O42" s="43"/>
-      <c r="P42" s="42"/>
+        <v>8.6046445877420186E-5</v>
+      </c>
+      <c r="O42" s="42"/>
+      <c r="P42" s="41"/>
     </row>
     <row r="43" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L43" s="58">
+      <c r="L43" s="48">
         <f t="shared" si="16"/>
         <v>9.562706817702621E-5</v>
       </c>
-      <c r="M43" s="58">
+      <c r="M43" s="48">
         <f t="shared" si="17"/>
-        <v>2.9933413297682817E-4</v>
-      </c>
-      <c r="O43" s="43"/>
-      <c r="P43" s="42"/>
+        <v>2.0571744205009359E-4</v>
+      </c>
+      <c r="O43" s="42"/>
+      <c r="P43" s="41"/>
     </row>
     <row r="44" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L44" s="58">
+      <c r="L44" s="48">
         <f>AVERAGE(L18, L32)</f>
         <v>1.3429413607128098E-4</v>
       </c>
-      <c r="M44" s="58">
+      <c r="M44" s="48">
         <f t="shared" si="17"/>
-        <v>3.0553226726854352E-4</v>
-      </c>
-      <c r="O44" s="43"/>
-      <c r="P44" s="42"/>
+        <v>1.8851140361012518E-4</v>
+      </c>
+      <c r="O44" s="42"/>
+      <c r="P44" s="41"/>
     </row>
     <row r="48" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L48">
         <f>M43/L43</f>
-        <v>3.130223886219083</v>
+        <v>2.1512469844758439</v>
       </c>
     </row>
   </sheetData>

--- a/case3_Borate/Excel_Files/purolite pcr642Ca Adsorption data.xlsx
+++ b/case3_Borate/Excel_Files/purolite pcr642Ca Adsorption data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1979230255d33e2/Desktop/MEng/MEng_Code/case3_Borate/Excel_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{27B12FAC-FB76-4C74-A142-A9B4A3AA3C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E1ADFE9-8BEC-425D-A15F-C0A7CD925CD7}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{27B12FAC-FB76-4C74-A142-A9B4A3AA3C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29A3AB03-9E5C-4559-B70A-301EA9774C44}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1152" yWindow="1092" windowWidth="21624" windowHeight="11244" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conc. in Calib Units" sheetId="3" r:id="rId1"/>
@@ -649,9 +649,9 @@
     <numFmt numFmtId="169" formatCode="0.0000000"/>
     <numFmt numFmtId="170" formatCode="0.0000E+00"/>
     <numFmt numFmtId="171" formatCode="0.00000000000"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -719,6 +719,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1100,7 +1106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1190,6 +1196,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1217,17 +1234,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="11" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2960,21 +2973,21 @@
       <c r="A1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -5913,8 +5926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6828CF-0838-4573-8335-33E9026E31D7}">
   <dimension ref="A2:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="79" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5935,20 +5948,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="53"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="26" t="s">
         <v>155</v>
       </c>
@@ -5974,27 +5987,27 @@
       <c r="B5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="51" t="s">
+      <c r="D5" s="65"/>
+      <c r="E5" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="52"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="51" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="63"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="32">
@@ -6026,7 +6039,7 @@
       <c r="E7" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="20" t="s">
         <v>154</v>
       </c>
@@ -6061,7 +6074,7 @@
         <f>50*C8</f>
         <v>144.7854334333955</v>
       </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="22">
         <f>41*D8</f>
         <v>123.80283870916648</v>
@@ -6098,7 +6111,7 @@
         <f t="shared" ref="E9:E15" si="1">50*C9</f>
         <v>86.479872608741005</v>
       </c>
-      <c r="F9" s="56"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="22">
         <f t="shared" ref="G9:G15" si="2">41*D9</f>
         <v>104.77426374531142</v>
@@ -6128,15 +6141,15 @@
         <f t="shared" si="1"/>
         <v>66.478705233180008</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="22">
         <f t="shared" si="2"/>
         <v>71.346293602678344</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="50" t="s">
         <v>179</v>
       </c>
       <c r="K10" s="46" t="s">
@@ -6177,16 +6190,16 @@
         <f t="shared" si="1"/>
         <v>47.296596875910453</v>
       </c>
-      <c r="F11" s="56"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="22">
         <f t="shared" si="2"/>
         <v>60.167211373284822</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="52">
         <f>B15</f>
         <v>0</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="51">
         <f>E15</f>
         <v>0</v>
       </c>
@@ -6234,16 +6247,16 @@
         <f t="shared" si="1"/>
         <v>40.879215916391047</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="22">
         <f t="shared" si="2"/>
         <v>41.480940563799237</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="52">
         <f>B14</f>
         <v>17.483422286915737</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="51">
         <f>E14</f>
         <v>16.569231312517449</v>
       </c>
@@ -6291,16 +6304,16 @@
         <f t="shared" si="1"/>
         <v>22.649739069841651</v>
       </c>
-      <c r="F13" s="56"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="22">
         <f t="shared" si="2"/>
         <v>36.194818967299135</v>
       </c>
-      <c r="I13" s="61">
+      <c r="I13" s="52">
         <f>B13</f>
         <v>34.966844573831473</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="51">
         <f>E13</f>
         <v>22.649739069841651</v>
       </c>
@@ -6348,16 +6361,16 @@
         <f t="shared" si="1"/>
         <v>16.569231312517449</v>
       </c>
-      <c r="F14" s="56"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="22">
         <f t="shared" si="2"/>
         <v>18.292119890491012</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="52">
         <f>B12</f>
         <v>43.708555717289343</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="51">
         <f>E12</f>
         <v>40.879215916391047</v>
       </c>
@@ -6405,51 +6418,51 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="57"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="53">
         <f>B11</f>
         <v>69.933689147662946</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J15" s="54">
         <f>E11</f>
         <v>47.296596875910453</v>
       </c>
-      <c r="K15" s="64">
+      <c r="K15" s="55">
         <f t="shared" si="3"/>
         <v>6.993368914766295E-5</v>
       </c>
-      <c r="L15" s="65">
+      <c r="L15" s="56">
         <f t="shared" si="4"/>
         <v>4.7296596875910455E-5</v>
       </c>
-      <c r="M15" s="66">
+      <c r="M15" s="57">
         <f t="shared" si="5"/>
         <v>2.2637092271752495E-5</v>
       </c>
-      <c r="N15" s="67">
+      <c r="N15" s="58">
         <f t="shared" si="6"/>
         <v>3.395563840762874E-4</v>
       </c>
-      <c r="O15" s="68">
+      <c r="O15" s="59">
         <f t="shared" si="7"/>
         <v>8.4889096019071851E-5</v>
       </c>
-      <c r="P15" s="67">
+      <c r="P15" s="58">
         <f t="shared" si="8"/>
         <v>1.052624790636491E-4</v>
       </c>
       <c r="Q15" s="41"/>
     </row>
     <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="I16" s="61">
+      <c r="I16" s="52">
         <f>B10</f>
         <v>87.417111434578686</v>
       </c>
-      <c r="J16" s="60">
+      <c r="J16" s="51">
         <f>E10</f>
         <v>66.478705233180008</v>
       </c>
@@ -6480,11 +6493,11 @@
       <c r="Q16" s="41"/>
     </row>
     <row r="17" spans="2:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="61">
+      <c r="I17" s="52">
         <f>B9</f>
         <v>139.86737829532589</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="51">
         <f>E9</f>
         <v>86.479872608741005</v>
       </c>
@@ -6518,15 +6531,15 @@
       <c r="C18" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="I18" s="60">
+      <c r="E18" s="63"/>
+      <c r="I18" s="51">
         <f>B8</f>
         <v>174.83422286915737</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="51">
         <f>E8</f>
         <v>144.7854334333955</v>
       </c>
@@ -6560,10 +6573,10 @@
       <c r="C19" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="63"/>
     </row>
     <row r="20" spans="2:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -6585,10 +6598,10 @@
       </c>
     </row>
     <row r="24" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="I24" s="58" t="s">
+      <c r="I24" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="50" t="s">
         <v>182</v>
       </c>
       <c r="K24" s="46" t="s">
@@ -6615,11 +6628,11 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="I25" s="60">
+      <c r="I25" s="51">
         <f>I11</f>
         <v>0</v>
       </c>
-      <c r="J25" s="60">
+      <c r="J25" s="51">
         <f>G15</f>
         <v>0</v>
       </c>
@@ -6658,36 +6671,36 @@
       <c r="C26" s="31">
         <v>10.81</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="69">
         <f t="shared" ref="I26:I32" si="9">I12</f>
         <v>17.483422286915737</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="69">
         <f>G14</f>
         <v>18.292119890491012</v>
       </c>
-      <c r="K26" s="46">
-        <f t="shared" ref="K26:K32" si="10">I26/1000000</f>
+      <c r="K26" s="70">
+        <f>I26/1000000</f>
         <v>1.7483422286915737E-5</v>
       </c>
-      <c r="L26">
-        <f t="shared" ref="L26:L32" si="11">J26/1000000</f>
+      <c r="L26" s="71">
+        <f t="shared" ref="L26:L32" si="10">J26/1000000</f>
         <v>1.8292119890491012E-5</v>
       </c>
-      <c r="M26" s="35">
+      <c r="M26" s="72">
         <f>K26-L26</f>
         <v>-8.0869760357527457E-7</v>
       </c>
-      <c r="N26" s="40">
-        <f t="shared" ref="N26:N32" si="12">M26*$G$4</f>
+      <c r="N26" s="73">
+        <f t="shared" ref="N26:N32" si="11">M26*$G$4</f>
         <v>-1.2130464053629119E-5</v>
       </c>
-      <c r="O26" s="40">
-        <f t="shared" ref="O26:O32" si="13">N26/$G$3</f>
+      <c r="O26" s="73">
+        <f t="shared" ref="O26:O32" si="12">N26/$G$3</f>
         <v>-3.0326160134072796E-6</v>
       </c>
-      <c r="P26" s="38">
-        <f t="shared" ref="P26:P32" si="14">O26*$M$7</f>
+      <c r="P26" s="74">
+        <f t="shared" ref="P26:P32" si="13">O26*$M$7</f>
         <v>-3.7604438566250268E-6</v>
       </c>
       <c r="Q26" s="45"/>
@@ -6701,36 +6714,36 @@
       <c r="C27" s="31">
         <v>61.83</v>
       </c>
-      <c r="I27" s="60">
+      <c r="I27" s="69">
         <f t="shared" si="9"/>
         <v>34.966844573831473</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="69">
         <f>G13</f>
         <v>36.194818967299135</v>
       </c>
-      <c r="K27" s="46">
-        <f t="shared" si="10"/>
+      <c r="K27" s="70">
+        <f t="shared" ref="K26:K32" si="14">I27/1000000</f>
         <v>3.4966844573831475E-5</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="71">
         <f>J27/1000000</f>
         <v>3.6194818967299134E-5</v>
       </c>
-      <c r="M27" s="35">
+      <c r="M27" s="72">
         <f t="shared" ref="M27:M32" si="15">K27-L27</f>
         <v>-1.2279743934676593E-6</v>
       </c>
-      <c r="N27" s="40">
+      <c r="N27" s="73">
+        <f t="shared" si="11"/>
+        <v>-1.8419615902014889E-5</v>
+      </c>
+      <c r="O27" s="73">
         <f t="shared" si="12"/>
-        <v>-1.8419615902014889E-5</v>
-      </c>
-      <c r="O27" s="40">
+        <v>-4.6049039755037223E-6</v>
+      </c>
+      <c r="P27" s="74">
         <f t="shared" si="13"/>
-        <v>-4.6049039755037223E-6</v>
-      </c>
-      <c r="P27" s="38">
-        <f t="shared" si="14"/>
         <v>-5.710080929624616E-6</v>
       </c>
       <c r="Q27" s="45"/>
@@ -6745,20 +6758,20 @@
         <f>C26/C27</f>
         <v>0.17483422286915737</v>
       </c>
-      <c r="I28" s="60">
+      <c r="I28" s="51">
         <f t="shared" si="9"/>
         <v>43.708555717289343</v>
       </c>
-      <c r="J28" s="60">
+      <c r="J28" s="51">
         <f>G12</f>
         <v>41.480940563799237</v>
       </c>
       <c r="K28" s="46">
+        <f t="shared" si="14"/>
+        <v>4.370855571728934E-5</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="10"/>
-        <v>4.370855571728934E-5</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="11"/>
         <v>4.1480940563799239E-5</v>
       </c>
       <c r="M28" s="35">
@@ -6766,15 +6779,15 @@
         <v>2.2276151534901016E-6</v>
       </c>
       <c r="N28" s="40">
+        <f t="shared" si="11"/>
+        <v>3.3414227302351524E-5</v>
+      </c>
+      <c r="O28" s="40">
         <f t="shared" si="12"/>
-        <v>3.3414227302351524E-5</v>
-      </c>
-      <c r="O28" s="40">
+        <v>8.353556825587881E-6</v>
+      </c>
+      <c r="P28" s="38">
         <f t="shared" si="13"/>
-        <v>8.353556825587881E-6</v>
-      </c>
-      <c r="P28" s="38">
-        <f t="shared" si="14"/>
         <v>1.0358410463728973E-5</v>
       </c>
       <c r="Q28" s="45"/>
@@ -6782,20 +6795,20 @@
       <c r="T28" s="44"/>
     </row>
     <row r="29" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="I29" s="60">
+      <c r="I29" s="51">
         <f t="shared" si="9"/>
         <v>69.933689147662946</v>
       </c>
-      <c r="J29" s="60">
+      <c r="J29" s="51">
         <f>G11</f>
         <v>60.167211373284822</v>
       </c>
       <c r="K29" s="46">
+        <f t="shared" si="14"/>
+        <v>6.993368914766295E-5</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="10"/>
-        <v>6.993368914766295E-5</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="11"/>
         <v>6.0167211373284823E-5</v>
       </c>
       <c r="M29" s="35">
@@ -6803,15 +6816,15 @@
         <v>9.7664777743781262E-6</v>
       </c>
       <c r="N29" s="40">
+        <f t="shared" si="11"/>
+        <v>1.4649716661567188E-4</v>
+      </c>
+      <c r="O29" s="40">
         <f t="shared" si="12"/>
-        <v>1.4649716661567188E-4</v>
-      </c>
-      <c r="O29" s="40">
+        <v>3.662429165391797E-5</v>
+      </c>
+      <c r="P29" s="38">
         <f t="shared" si="13"/>
-        <v>3.662429165391797E-5</v>
-      </c>
-      <c r="P29" s="38">
-        <f t="shared" si="14"/>
         <v>4.5414121650858281E-5</v>
       </c>
       <c r="Q29" s="45"/>
@@ -6819,20 +6832,20 @@
       <c r="T29" s="44"/>
     </row>
     <row r="30" spans="2:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="I30" s="60">
+      <c r="I30" s="51">
         <f t="shared" si="9"/>
         <v>87.417111434578686</v>
       </c>
-      <c r="J30" s="60">
+      <c r="J30" s="51">
         <f>G10</f>
         <v>71.346293602678344</v>
       </c>
       <c r="K30" s="46">
+        <f t="shared" si="14"/>
+        <v>8.741711143457868E-5</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="10"/>
-        <v>8.741711143457868E-5</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="11"/>
         <v>7.1346293602678347E-5</v>
       </c>
       <c r="M30" s="35">
@@ -6840,15 +6853,15 @@
         <v>1.6070817831900333E-5</v>
       </c>
       <c r="N30" s="40">
+        <f t="shared" si="11"/>
+        <v>2.4106226747850501E-4</v>
+      </c>
+      <c r="O30" s="40">
         <f t="shared" si="12"/>
-        <v>2.4106226747850501E-4</v>
-      </c>
-      <c r="O30" s="40">
+        <v>6.0265566869626252E-5</v>
+      </c>
+      <c r="P30" s="38">
         <f t="shared" si="13"/>
-        <v>6.0265566869626252E-5</v>
-      </c>
-      <c r="P30" s="38">
-        <f t="shared" si="14"/>
         <v>7.4729302918336555E-5</v>
       </c>
       <c r="Q30" s="45"/>
@@ -6856,20 +6869,20 @@
       <c r="T30" s="44"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I31" s="60">
+      <c r="I31" s="51">
         <f t="shared" si="9"/>
         <v>139.86737829532589</v>
       </c>
-      <c r="J31" s="60">
+      <c r="J31" s="51">
         <f>G9</f>
         <v>104.77426374531142</v>
       </c>
       <c r="K31" s="46">
+        <f t="shared" si="14"/>
+        <v>1.398673782953259E-4</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="10"/>
-        <v>1.398673782953259E-4</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="11"/>
         <v>1.0477426374531142E-4</v>
       </c>
       <c r="M31" s="35">
@@ -6877,34 +6890,34 @@
         <v>3.5093114550014477E-5</v>
       </c>
       <c r="N31" s="40">
+        <f t="shared" si="11"/>
+        <v>5.2639671825021716E-4</v>
+      </c>
+      <c r="O31" s="40">
         <f t="shared" si="12"/>
-        <v>5.2639671825021716E-4</v>
-      </c>
-      <c r="O31" s="40">
+        <v>1.3159917956255429E-4</v>
+      </c>
+      <c r="P31" s="38">
         <f t="shared" si="13"/>
-        <v>1.3159917956255429E-4</v>
-      </c>
-      <c r="P31" s="38">
-        <f t="shared" si="14"/>
         <v>1.6318298265756732E-4</v>
       </c>
       <c r="Q31" s="45"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I32" s="60">
+      <c r="I32" s="51">
         <f t="shared" si="9"/>
         <v>174.83422286915737</v>
       </c>
-      <c r="J32" s="60">
+      <c r="J32" s="51">
         <f>G8</f>
         <v>123.80283870916648</v>
       </c>
       <c r="K32" s="46">
+        <f t="shared" si="14"/>
+        <v>1.7483422286915736E-4</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="10"/>
-        <v>1.7483422286915736E-4</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="11"/>
         <v>1.2380283870916647E-4</v>
       </c>
       <c r="M32" s="35">
@@ -6912,15 +6925,15 @@
         <v>5.1031384159990894E-5</v>
       </c>
       <c r="N32" s="40">
+        <f t="shared" si="11"/>
+        <v>7.6547076239986338E-4</v>
+      </c>
+      <c r="O32" s="40">
         <f t="shared" si="12"/>
-        <v>7.6547076239986338E-4</v>
-      </c>
-      <c r="O32" s="40">
+        <v>1.9136769059996584E-4</v>
+      </c>
+      <c r="P32" s="38">
         <f t="shared" si="13"/>
-        <v>1.9136769059996584E-4</v>
-      </c>
-      <c r="P32" s="38">
-        <f t="shared" si="14"/>
         <v>2.3729593634395763E-4</v>
       </c>
       <c r="Q32" s="45"/>
@@ -6946,11 +6959,11 @@
       </c>
     </row>
     <row r="38" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L38" s="48">
+      <c r="L38" s="75">
         <f t="shared" ref="L38:L43" si="16">AVERAGE(L12, L26)</f>
         <v>1.7430675601504233E-5</v>
       </c>
-      <c r="M38" s="48">
+      <c r="M38" s="75">
         <f t="shared" ref="M38:M44" si="17">AVERAGE(P12,P26)</f>
         <v>2.4527208716350581E-7</v>
       </c>
@@ -6958,11 +6971,11 @@
       <c r="P38" s="41"/>
     </row>
     <row r="39" spans="12:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="L39" s="48">
+      <c r="L39" s="75">
         <f t="shared" si="16"/>
         <v>2.9422279018570391E-5</v>
       </c>
-      <c r="M39" s="48">
+      <c r="M39" s="75">
         <f>AVERAGE(P13,P27)</f>
         <v>2.5782229831964032E-5</v>
       </c>
